--- a/세금계산서 대상.xlsx
+++ b/세금계산서 대상.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\10.인포솔루션\10.거래내역\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info1\Desktop\work\3. 세금계산서 관련\세금계산서 대상\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="2020년" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2022년" sheetId="2" r:id="rId1"/>
+    <sheet name="2020년" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020년'!$A$5:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020년'!$A$5:$H$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="127">
   <si>
     <t>통화</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -303,6 +303,239 @@
     <t>베트남 출장 격리비용등</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>KRW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>USD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2022-09)ERP 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자세금계산서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10부터 유지보수료 중단 / 스마트공장 협약</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVOICE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜웅진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜뉴프렉스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2022-12)세기 P&amp;C 모바일시스템 유지보수료</t>
+  </si>
+  <si>
+    <t>(2022-12)제이시스 메디칼 유지보수료</t>
+  </si>
+  <si>
+    <t>(2022-12)리한 유지보수료</t>
+  </si>
+  <si>
+    <t>2022.09 계약갱신 / 유지보수료 인상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜비에이치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2022-09)ERP 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2022-12)ERP 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수보고서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비에이치 ELECTRONICS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴프렉스 VINA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비에이치 VINA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2022-12)Maintenance Fee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2022-12)Maintenance Fee</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리이앤엘㈜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2022-12) MES/WMS유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜에스아이플렉스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합정보시스템(FLEX-ERP) 구축비(36회)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합정보시스템(FLEX-ERP) 유지보수료2022-12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수보고서, 거래명세서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스아이플렉스 VINA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스아이플렉스 위해</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합정보시스템(FLEX-ERP) 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합정보시스템(FLEX-ERP) 구축비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수보고서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.09까지 분납</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.09까지 분납(완료)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매월 1일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사 이든</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2022-12)FLEX-ERP 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11 계약갱신 / 유지보수료 인상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜멀티텍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>백송전자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이노아이 컨설팅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기주산업㈜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜워피온</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>세일전자㈜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시노펙스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2022-12)Flex_Manufacturing유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2022-12)ERP 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대원산업 유지보수료(2022-12)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2022-12)ERP 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MES System 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수보고서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약갱신 진행중(2022.07~)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.09부터 재발행 / 스마트공장 종료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.09부터 계약</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.08부터 계약</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수보고서 (10건)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +545,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +597,22 @@
       <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -427,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -532,6 +781,48 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -814,13 +1105,735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="44"/>
+    <col min="4" max="4" width="11.875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="45">
+        <v>3500000</v>
+      </c>
+      <c r="E3" s="45">
+        <f>D3*0.1</f>
+        <v>350000</v>
+      </c>
+      <c r="F3" s="45">
+        <f>SUM(D3:E3)</f>
+        <v>3850000</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="45">
+        <v>2082</v>
+      </c>
+      <c r="E4" s="45">
+        <v>0</v>
+      </c>
+      <c r="F4" s="45">
+        <f t="shared" ref="F4:F22" si="0">SUM(D4:E4)</f>
+        <v>2082</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="45">
+        <v>350000</v>
+      </c>
+      <c r="E5" s="45">
+        <f t="shared" ref="E5:E13" si="1">D5*0.1</f>
+        <v>35000</v>
+      </c>
+      <c r="F5" s="45">
+        <f t="shared" si="0"/>
+        <v>385000</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="45">
+        <v>350000</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="F6" s="45">
+        <f t="shared" si="0"/>
+        <v>385000</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="43"/>
+      <c r="J6" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="45">
+        <v>350000</v>
+      </c>
+      <c r="E7" s="45">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="F7" s="45">
+        <f t="shared" si="0"/>
+        <v>385000</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="45">
+        <v>2850000</v>
+      </c>
+      <c r="E8" s="45">
+        <f t="shared" si="1"/>
+        <v>285000</v>
+      </c>
+      <c r="F8" s="45">
+        <f t="shared" si="0"/>
+        <v>3135000</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="45">
+        <v>1842</v>
+      </c>
+      <c r="E9" s="45">
+        <v>0</v>
+      </c>
+      <c r="F9" s="45">
+        <f t="shared" si="0"/>
+        <v>1842</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="45">
+        <v>1842</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0</v>
+      </c>
+      <c r="F10" s="45">
+        <f t="shared" si="0"/>
+        <v>1842</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="45">
+        <v>5000000</v>
+      </c>
+      <c r="E11" s="45">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="F11" s="45">
+        <f t="shared" si="0"/>
+        <v>5500000</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="45">
+        <v>8000000</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+      <c r="F12" s="45">
+        <f t="shared" si="0"/>
+        <v>8800000</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="45">
+        <v>4750000</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="1"/>
+        <v>475000</v>
+      </c>
+      <c r="F13" s="45">
+        <f t="shared" si="0"/>
+        <v>5225000</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="45">
+        <v>5097</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0</v>
+      </c>
+      <c r="F14" s="45">
+        <f t="shared" si="0"/>
+        <v>5097</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="45">
+        <v>7500</v>
+      </c>
+      <c r="E15" s="45">
+        <v>0</v>
+      </c>
+      <c r="F15" s="45">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="45">
+        <v>1800000</v>
+      </c>
+      <c r="E16" s="45">
+        <f t="shared" ref="E16:E21" si="2">D16*0.1</f>
+        <v>180000</v>
+      </c>
+      <c r="F16" s="45">
+        <f t="shared" si="0"/>
+        <v>1980000</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="45">
+        <v>7000000</v>
+      </c>
+      <c r="E17" s="45">
+        <f t="shared" si="2"/>
+        <v>700000</v>
+      </c>
+      <c r="F17" s="45">
+        <f t="shared" si="0"/>
+        <v>7700000</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="45">
+        <v>2500000</v>
+      </c>
+      <c r="E18" s="45">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+      <c r="F18" s="45">
+        <f t="shared" si="0"/>
+        <v>2750000</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="45">
+        <v>4250000</v>
+      </c>
+      <c r="E19" s="45">
+        <f t="shared" si="2"/>
+        <v>425000</v>
+      </c>
+      <c r="F19" s="45">
+        <f t="shared" si="0"/>
+        <v>4675000</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="46">
+        <v>2500000</v>
+      </c>
+      <c r="E20" s="46">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+      <c r="F20" s="46">
+        <f t="shared" si="0"/>
+        <v>2750000</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="46">
+        <v>4500000</v>
+      </c>
+      <c r="E21" s="46">
+        <f t="shared" si="2"/>
+        <v>450000</v>
+      </c>
+      <c r="F21" s="46">
+        <f t="shared" si="0"/>
+        <v>4950000</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="44"/>
+      <c r="J21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="46">
+        <v>1663</v>
+      </c>
+      <c r="E22" s="45">
+        <v>0</v>
+      </c>
+      <c r="F22" s="46">
+        <f t="shared" si="0"/>
+        <v>1663</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="46">
+        <v>2550000</v>
+      </c>
+      <c r="E23" s="46">
+        <f t="shared" ref="E23" si="3">D23*0.1</f>
+        <v>255000</v>
+      </c>
+      <c r="F23" s="46">
+        <f t="shared" ref="F23" si="4">SUM(D23:E23)</f>
+        <v>2805000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="44"/>
+      <c r="J23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30:M33"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1535,17 +2548,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/세금계산서 대상.xlsx
+++ b/세금계산서 대상.xlsx
@@ -12,11 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="2022년" sheetId="2" r:id="rId1"/>
-    <sheet name="2020년" sheetId="1" r:id="rId2"/>
+    <sheet name="2023년" sheetId="3" r:id="rId1"/>
+    <sheet name="2022년" sheetId="2" r:id="rId2"/>
+    <sheet name="2020년" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020년'!$A$5:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2020년'!$A$5:$H$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="142">
   <si>
     <t>통화</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -536,14 +537,64 @@
     <t>유지보수보고서 (10건)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>현우산업㈜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2023-01)ERP 유지보수료</t>
+  </si>
+  <si>
+    <t>(2023-01)ERP 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2023-01)세기 P&amp;C 모바일시스템 유지보수료</t>
+  </si>
+  <si>
+    <t>(2023-01)제이시스 메디칼 유지보수료</t>
+  </si>
+  <si>
+    <t>(2023-01)리한 유지보수료</t>
+  </si>
+  <si>
+    <t>(2023-01)Maintenance Fee</t>
+  </si>
+  <si>
+    <t>(2023-01) MES/WMS유지보수료</t>
+  </si>
+  <si>
+    <t>통합정보시스템(FLEX-ERP) 유지보수료2023-01)</t>
+  </si>
+  <si>
+    <t>(2023-01)Flex_Manufacturing유지보수료</t>
+  </si>
+  <si>
+    <t>대원산업 유지보수료(2023-01)</t>
+  </si>
+  <si>
+    <t>(2023-01)FLEX-ERP 유지보수료</t>
+  </si>
+  <si>
+    <t>계약 검토중</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>환율상승으로 인한 외화금액 감소</t>
+  </si>
+  <si>
+    <t>환율상승으로 인한 외화금액 감소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -615,7 +666,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,6 +709,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -676,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +879,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1105,9 +1174,644 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="44"/>
+    <col min="4" max="4" width="11.875" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="45">
+        <v>350000</v>
+      </c>
+      <c r="E3" s="45">
+        <f t="shared" ref="E3:E10" si="0">D3*0.1</f>
+        <v>35000</v>
+      </c>
+      <c r="F3" s="45">
+        <f t="shared" ref="F3:F19" si="1">SUM(D3:E3)</f>
+        <v>385000</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="45">
+        <v>350000</v>
+      </c>
+      <c r="E4" s="45">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="F4" s="45">
+        <f t="shared" si="1"/>
+        <v>385000</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="45">
+        <v>350000</v>
+      </c>
+      <c r="E5" s="45">
+        <f t="shared" si="0"/>
+        <v>35000</v>
+      </c>
+      <c r="F5" s="45">
+        <f t="shared" si="1"/>
+        <v>385000</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="45">
+        <v>2850000</v>
+      </c>
+      <c r="E6" s="45">
+        <f t="shared" si="0"/>
+        <v>285000</v>
+      </c>
+      <c r="F6" s="45">
+        <f t="shared" si="1"/>
+        <v>3135000</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="50">
+        <v>1595</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
+        <f t="shared" si="1"/>
+        <v>1595</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="50">
+        <v>1595</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
+        <f t="shared" si="1"/>
+        <v>1595</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="45">
+        <v>5000000</v>
+      </c>
+      <c r="E9" s="45">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="F9" s="45">
+        <f t="shared" si="1"/>
+        <v>5500000</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="51">
+        <v>4750000</v>
+      </c>
+      <c r="E10" s="45">
+        <f t="shared" si="0"/>
+        <v>475000</v>
+      </c>
+      <c r="F10" s="45">
+        <f t="shared" si="1"/>
+        <v>5225000</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="49">
+        <v>4308.5</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0</v>
+      </c>
+      <c r="F11" s="45">
+        <f t="shared" si="1"/>
+        <v>4308.5</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="45">
+        <v>1800000</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" ref="E12:E18" si="2">D12*0.1</f>
+        <v>180000</v>
+      </c>
+      <c r="F12" s="45">
+        <f t="shared" si="1"/>
+        <v>1980000</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="45">
+        <v>7000000</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="2"/>
+        <v>700000</v>
+      </c>
+      <c r="F13" s="45">
+        <f t="shared" si="1"/>
+        <v>7700000</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="45">
+        <v>2500000</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+      <c r="F14" s="45">
+        <f t="shared" si="1"/>
+        <v>2750000</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="45">
+        <v>4250000</v>
+      </c>
+      <c r="E15" s="45">
+        <f t="shared" si="2"/>
+        <v>425000</v>
+      </c>
+      <c r="F15" s="45">
+        <f t="shared" si="1"/>
+        <v>4675000</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="46">
+        <v>2500000</v>
+      </c>
+      <c r="E16" s="46">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+      <c r="F16" s="46">
+        <f t="shared" si="1"/>
+        <v>2750000</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="44"/>
+      <c r="J16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="46">
+        <v>4500000</v>
+      </c>
+      <c r="E17" s="46">
+        <f t="shared" si="2"/>
+        <v>450000</v>
+      </c>
+      <c r="F17" s="46">
+        <f t="shared" si="1"/>
+        <v>4950000</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="46">
+        <v>2300000</v>
+      </c>
+      <c r="E18" s="46">
+        <f t="shared" si="2"/>
+        <v>230000</v>
+      </c>
+      <c r="F18" s="46">
+        <f t="shared" si="1"/>
+        <v>2530000</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="52">
+        <v>1663</v>
+      </c>
+      <c r="E19" s="45">
+        <v>0</v>
+      </c>
+      <c r="F19" s="46">
+        <f t="shared" si="1"/>
+        <v>1663</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="46">
+        <v>2550000</v>
+      </c>
+      <c r="E20" s="46">
+        <f t="shared" ref="E20" si="3">D20*0.1</f>
+        <v>255000</v>
+      </c>
+      <c r="F20" s="46">
+        <f t="shared" ref="F20" si="4">SUM(D20:E20)</f>
+        <v>2805000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -1825,7 +2529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>

--- a/세금계산서 대상.xlsx
+++ b/세금계산서 대상.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info1\Desktop\work\3. 세금계산서 관련\세금계산서 대상\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info1\Desktop\work\4. 세금계산서 관련\세금계산서 대상\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="143">
   <si>
     <t>통화</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -586,6 +586,10 @@
     <t>환율상승으로 인한 외화금액 감소</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2022.03월부로 계약 종료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -596,7 +600,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,6 +662,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
@@ -733,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,6 +921,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,7 +1225,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1638,35 +1686,35 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="56">
         <v>2500000</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="56">
         <f t="shared" si="2"/>
         <v>250000</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="56">
         <f t="shared" si="1"/>
         <v>2750000</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="55" t="s">
         <v>37</v>
       </c>
       <c r="I16" s="44"/>
-      <c r="J16" t="s">
-        <v>124</v>
+      <c r="J16" s="58" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">

--- a/세금계산서 대상.xlsx
+++ b/세금계산서 대상.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info1\Desktop\work\4. 세금계산서 관련\세금계산서 대상\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info1\Desktop\work\4. 세금계산서 관련\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="2023년" sheetId="3" r:id="rId1"/>
-    <sheet name="2022년" sheetId="2" r:id="rId2"/>
-    <sheet name="2020년" sheetId="1" r:id="rId3"/>
+    <sheet name="2023년 Project" sheetId="5" r:id="rId1"/>
+    <sheet name="2023년" sheetId="3" r:id="rId2"/>
+    <sheet name="2022년" sheetId="2" r:id="rId3"/>
+    <sheet name="2020년" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2020년'!$A$5:$H$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2020년'!$A$5:$H$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,8 +29,750 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>jlake</author>
+    <author>info1</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>계약금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>및</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가비용에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입력해야</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">함
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인도</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 2023.03.01~2024.02.28
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>베트남</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1,2 : 2023.05.01~2024.04.30</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="209">
   <si>
     <t>통화</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -590,6 +1333,265 @@
     <t>2022.03월부로 계약 종료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총계약금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약기간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>베트남</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 프로젝트 관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4대보험</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>손익금액</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두산전자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재조건</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약후 계약금(30%), 중간보고 후 중도금(40%), 완료보고 후잔금(30%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입인력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(P)신현철, 서영우, 박한수, 조광호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLEX-ERP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인 건 비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고 정 비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경    비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수    당</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>합   계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>세발일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성 C&amp;T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도, 베트남1,2공장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(P)김태준, 장복래, 임채홍, 최홍석, 장영훈, 전호수, 박현서, 최서영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대원산업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔금(100%)</t>
+  </si>
+  <si>
+    <t>잔금(100%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4열 재고관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서산공장 YB CUV POP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토오크공정관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전호수, 김성민, 고희윤, 최서영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전호수, 김성민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전호수, 김성민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 PDA 금액 포함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>투입시작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금/추가비용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 VINA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.02.22~
+2023.10.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLEX-Manufacturing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약후 계약금(30%), 중간보고 후 중도금(30%), 완료보고 후잔금(40%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 238,000,000원
+패키지 150,000,000원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도 430,000,000원
+베트남1 410,000,000원
+베트남2 410,000,000원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.03.01~
+2024.02.28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종철, 김성민, 종희선, 최홍석</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.03.02~
+2023.08.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원화로 496,000,000원
+환율 1,225적용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.03.15 / 패키지 : 2023.03.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.02.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.02.28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -600,7 +1602,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,8 +1697,54 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,8 +1793,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -754,6 +1820,244 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,7 +2067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -940,13 +2244,242 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1221,11 +2754,1472 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="65" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="67" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="65" customWidth="1"/>
+    <col min="5" max="5" width="12" style="65" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="65" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="74" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="61" customWidth="1"/>
+    <col min="11" max="22" width="10.5" style="61" customWidth="1"/>
+    <col min="23" max="23" width="18" style="62" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.25" style="61" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="X1" s="59"/>
+    </row>
+    <row r="2" spans="1:24" s="75" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="L2" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="R2" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="S2" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="T2" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="V2" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="W2" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="X2" s="88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="102">
+        <v>1</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="106"/>
+      <c r="D3" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="93">
+        <f>X8</f>
+        <v>388000000</v>
+      </c>
+      <c r="H3" s="89">
+        <f>G3-J8</f>
+        <v>388000000</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="59">
+        <f>SUM(K3:V3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="X3" s="59">
+        <v>388000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="103"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="61">
+        <f t="shared" ref="J4:J7" si="0">SUM(K4:V4)</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="97"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="103"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="97"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="103"/>
+      <c r="B6" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="97"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="103"/>
+      <c r="B7" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J7" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="97"/>
+    </row>
+    <row r="8" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="104"/>
+      <c r="B8" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" s="71">
+        <f>SUM(K8:V8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="71">
+        <f>SUM(K3:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="71">
+        <f>SUM(L3:L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="71">
+        <f t="shared" ref="M8:V8" si="1">SUM(M3:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="98"/>
+      <c r="X8" s="71">
+        <f>SUM(X3:X7)</f>
+        <v>388000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="102">
+        <v>2</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="106"/>
+      <c r="D9" s="91" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="91"/>
+      <c r="G9" s="93">
+        <f>X14</f>
+        <v>31640000</v>
+      </c>
+      <c r="H9" s="89">
+        <f>G9-J14</f>
+        <v>31640000</v>
+      </c>
+      <c r="I9" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="59">
+        <f>SUM(K9:V9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="X9" s="59">
+        <v>31640000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="103"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="61">
+        <f t="shared" ref="J10:J13" si="2">SUM(K10:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="97"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="103"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="97"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="103"/>
+      <c r="B12" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="97"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="103"/>
+      <c r="B13" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J13" s="61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="97"/>
+    </row>
+    <row r="14" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="104"/>
+      <c r="B14" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="71">
+        <f>SUM(K14:V14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="71">
+        <f>SUM(K9:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="71">
+        <f>SUM(L9:L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="71">
+        <f t="shared" ref="M14" si="3">SUM(M9:M13)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="71">
+        <f t="shared" ref="N14" si="4">SUM(N9:N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="71">
+        <f t="shared" ref="O14" si="5">SUM(O9:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="71">
+        <f t="shared" ref="P14" si="6">SUM(P9:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="71">
+        <f t="shared" ref="Q14" si="7">SUM(Q9:Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="71">
+        <f t="shared" ref="R14" si="8">SUM(R9:R13)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="71">
+        <f t="shared" ref="S14" si="9">SUM(S9:S13)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="71">
+        <f t="shared" ref="T14" si="10">SUM(T9:T13)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="71">
+        <f t="shared" ref="U14" si="11">SUM(U9:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="71">
+        <f t="shared" ref="V14" si="12">SUM(V9:V13)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="98"/>
+      <c r="X14" s="71">
+        <f>SUM(X9:X13)</f>
+        <v>31640000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="102">
+        <v>3</v>
+      </c>
+      <c r="B15" s="105" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="106"/>
+      <c r="D15" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="91"/>
+      <c r="G15" s="93">
+        <v>12000000</v>
+      </c>
+      <c r="H15" s="89">
+        <f>G15-J20</f>
+        <v>12000000</v>
+      </c>
+      <c r="I15" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" s="59">
+        <f>SUM(K15:V15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="59"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="103"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" s="61">
+        <f t="shared" ref="J16:J19" si="13">SUM(K16:V16)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="97"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="103"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="61">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="97"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="103"/>
+      <c r="B18" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="61">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="97"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="103"/>
+      <c r="B19" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" s="61">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="97"/>
+    </row>
+    <row r="20" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="104"/>
+      <c r="B20" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="71">
+        <f>SUM(K20:V20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="71">
+        <f>SUM(K15:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="71">
+        <f>SUM(L15:L19)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="71">
+        <f t="shared" ref="M20" si="14">SUM(M15:M19)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="71">
+        <f t="shared" ref="N20" si="15">SUM(N15:N19)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="71">
+        <f t="shared" ref="O20" si="16">SUM(O15:O19)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="71">
+        <f t="shared" ref="P20" si="17">SUM(P15:P19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="71">
+        <f t="shared" ref="Q20" si="18">SUM(Q15:Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="71">
+        <f t="shared" ref="R20" si="19">SUM(R15:R19)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="71">
+        <f t="shared" ref="S20" si="20">SUM(S15:S19)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="71">
+        <f t="shared" ref="T20" si="21">SUM(T15:T19)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="71">
+        <f t="shared" ref="U20" si="22">SUM(U15:U19)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="71">
+        <f t="shared" ref="V20" si="23">SUM(V15:V19)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="98"/>
+      <c r="X20" s="71">
+        <f>SUM(X15:X19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="102">
+        <v>4</v>
+      </c>
+      <c r="B21" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="106"/>
+      <c r="D21" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="91"/>
+      <c r="G21" s="93">
+        <v>3500000</v>
+      </c>
+      <c r="H21" s="89">
+        <f>G21-J26</f>
+        <v>3500000</v>
+      </c>
+      <c r="I21" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" s="59">
+        <f>SUM(K21:V21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="59"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="103"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="61">
+        <f t="shared" ref="J22:J25" si="24">SUM(K22:V22)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="97"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="103"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" s="61">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="97"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="103"/>
+      <c r="B24" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="109" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" s="61">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="97"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="103"/>
+      <c r="B25" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" s="61">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="97"/>
+    </row>
+    <row r="26" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="104"/>
+      <c r="B26" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" s="71">
+        <f>SUM(K26:V26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="71">
+        <f>SUM(K21:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="71">
+        <f>SUM(L21:L25)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="71">
+        <f t="shared" ref="M26" si="25">SUM(M21:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="71">
+        <f t="shared" ref="N26" si="26">SUM(N21:N25)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="71">
+        <f t="shared" ref="O26" si="27">SUM(O21:O25)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="71">
+        <f t="shared" ref="P26" si="28">SUM(P21:P25)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="71">
+        <f t="shared" ref="Q26" si="29">SUM(Q21:Q25)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="71">
+        <f t="shared" ref="R26" si="30">SUM(R21:R25)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="71">
+        <f t="shared" ref="S26" si="31">SUM(S21:S25)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="71">
+        <f t="shared" ref="T26" si="32">SUM(T21:T25)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="71">
+        <f t="shared" ref="U26" si="33">SUM(U21:U25)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="71">
+        <f t="shared" ref="V26" si="34">SUM(V21:V25)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="98"/>
+      <c r="X26" s="71">
+        <f>SUM(X21:X25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="102">
+        <v>5</v>
+      </c>
+      <c r="B27" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="106"/>
+      <c r="D27" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="93">
+        <f>X32</f>
+        <v>1250000000</v>
+      </c>
+      <c r="H27" s="89">
+        <f>G27-J32</f>
+        <v>1250000000</v>
+      </c>
+      <c r="I27" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="59">
+        <f>SUM(K27:V27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="X27" s="59">
+        <f>430000000+410000000+410000000</f>
+        <v>1250000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="103"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="61">
+        <f t="shared" ref="J28:J31" si="35">SUM(K28:V28)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="97"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="103"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J29" s="61">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="97"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="103"/>
+      <c r="B30" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J30" s="61">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="97"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="103"/>
+      <c r="B31" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="100" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J31" s="61">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="97"/>
+    </row>
+    <row r="32" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="104"/>
+      <c r="B32" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" s="71">
+        <f>SUM(K32:V32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="71">
+        <f>SUM(K27:K31)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="71">
+        <f>SUM(L27:L31)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="71">
+        <f t="shared" ref="M32" si="36">SUM(M27:M31)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="71">
+        <f t="shared" ref="N32" si="37">SUM(N27:N31)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="71">
+        <f t="shared" ref="O32" si="38">SUM(O27:O31)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="71">
+        <f t="shared" ref="P32" si="39">SUM(P27:P31)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="71">
+        <f t="shared" ref="Q32" si="40">SUM(Q27:Q31)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="71">
+        <f t="shared" ref="R32" si="41">SUM(R27:R31)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="71">
+        <f t="shared" ref="S32" si="42">SUM(S27:S31)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="71">
+        <f t="shared" ref="T32" si="43">SUM(T27:T31)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="71">
+        <f t="shared" ref="U32" si="44">SUM(U27:U31)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="71">
+        <f t="shared" ref="V32" si="45">SUM(V27:V31)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="98"/>
+      <c r="X32" s="71">
+        <f>SUM(X27:X31)</f>
+        <v>1250000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="102">
+        <v>6</v>
+      </c>
+      <c r="B33" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="106"/>
+      <c r="D33" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="93">
+        <f>X38</f>
+        <v>404898</v>
+      </c>
+      <c r="H33" s="89">
+        <f>G33-J38</f>
+        <v>404898</v>
+      </c>
+      <c r="I33" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J33" s="59">
+        <f>SUM(K33:V33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="X33" s="59">
+        <v>404898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="103"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" s="61">
+        <f t="shared" ref="J34:J37" si="46">SUM(K34:V34)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="97"/>
+    </row>
+    <row r="35" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="103"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J35" s="61">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="97"/>
+    </row>
+    <row r="36" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="103"/>
+      <c r="B36" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J36" s="61">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="97"/>
+    </row>
+    <row r="37" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="103"/>
+      <c r="B37" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J37" s="61">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="97"/>
+    </row>
+    <row r="38" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="104"/>
+      <c r="B38" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J38" s="71">
+        <f>SUM(K38:V38)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="71">
+        <f>SUM(K33:K37)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="71">
+        <f>SUM(L33:L37)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="71">
+        <f t="shared" ref="M38:V38" si="47">SUM(M33:M37)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="71">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="71">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="71">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="71">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="71">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="71">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="71">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="71">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="71">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="98"/>
+      <c r="X38" s="71">
+        <f>SUM(X33:X37)</f>
+        <v>404898</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="W33:W38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="W3:W8"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="W9:W14"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="W15:W20"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="W27:W32"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="H1:H3 H39:H1048576">
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1855,7 +4849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J23"/>
   <sheetViews>
@@ -2577,7 +5571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>

--- a/세금계산서 대상.xlsx
+++ b/세금계산서 대상.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info1\Desktop\work\4. 세금계산서 관련\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info1\Desktop\work\4. 세금계산서 관련\세금계산서 대상\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2023년 Project" sheetId="5" r:id="rId1"/>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="214">
   <si>
     <t>통화</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1567,10 +1567,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>김종철, 김성민, 종희선, 최홍석</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.03.02~
 2023.08.16</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1590,6 +1586,30 @@
   </si>
   <si>
     <t>계약금 : 2023.02.28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위해 세일전자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합정보시스템(FLEX-ERP) 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합정보시스템(FLEX-ERP) 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자세금계산서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 17일부터 계약</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김종철, 김성민, 종희선</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2067,7 +2087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2335,101 +2355,116 @@
     <xf numFmtId="41" fontId="13" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="41" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2757,11 +2792,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:C5"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2783,13 +2818,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="102" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103"/>
       <c r="F1" s="63"/>
       <c r="G1" s="64"/>
       <c r="H1" s="78"/>
@@ -2813,11 +2848,11 @@
       <c r="A2" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="111"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="77" t="s">
         <v>169</v>
       </c>
@@ -2880,27 +2915,27 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102">
+      <c r="A3" s="104">
         <v>1</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="91" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="93">
+      <c r="F3" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="91">
         <f>X8</f>
         <v>388000000</v>
       </c>
-      <c r="H3" s="89">
+      <c r="H3" s="93">
         <f>G3-J8</f>
         <v>388000000</v>
       </c>
@@ -2923,7 +2958,7 @@
       <c r="T3" s="59"/>
       <c r="U3" s="59"/>
       <c r="V3" s="59"/>
-      <c r="W3" s="114" t="s">
+      <c r="W3" s="95" t="s">
         <v>200</v>
       </c>
       <c r="X3" s="59">
@@ -2931,14 +2966,14 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="90"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="81" t="s">
         <v>150</v>
       </c>
@@ -2946,19 +2981,19 @@
         <f t="shared" ref="J4:J7" si="0">SUM(K4:V4)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="97"/>
+      <c r="W4" s="96"/>
     </row>
     <row r="5" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
       <c r="I5" s="81" t="s">
         <v>171</v>
       </c>
@@ -2966,10 +3001,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="97"/>
+      <c r="W5" s="96"/>
     </row>
     <row r="6" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="103"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="81" t="s">
         <v>166</v>
       </c>
@@ -2988,10 +3023,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="97"/>
+      <c r="W6" s="96"/>
     </row>
     <row r="7" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="81" t="s">
         <v>164</v>
       </c>
@@ -3010,15 +3045,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="97"/>
+      <c r="W7" s="96"/>
     </row>
     <row r="8" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="86" t="s">
         <v>175</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D8" s="101"/>
       <c r="E8" s="101"/>
@@ -3080,32 +3115,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W8" s="98"/>
+      <c r="W8" s="97"/>
       <c r="X8" s="71">
         <f>SUM(X3:X7)</f>
         <v>388000000</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="102">
+      <c r="A9" s="104">
         <v>2</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="91" t="s">
+      <c r="C9" s="108"/>
+      <c r="D9" s="89" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="93">
+      <c r="F9" s="89"/>
+      <c r="G9" s="91">
         <f>X14</f>
         <v>31640000</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="93">
         <f>G9-J14</f>
         <v>31640000</v>
       </c>
@@ -3128,7 +3163,7 @@
       <c r="T9" s="59"/>
       <c r="U9" s="59"/>
       <c r="V9" s="59"/>
-      <c r="W9" s="96" t="s">
+      <c r="W9" s="118" t="s">
         <v>192</v>
       </c>
       <c r="X9" s="59">
@@ -3136,14 +3171,14 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="90"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="81" t="s">
         <v>150</v>
       </c>
@@ -3151,19 +3186,19 @@
         <f t="shared" ref="J10:J13" si="2">SUM(K10:V10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="97"/>
+      <c r="W10" s="96"/>
     </row>
     <row r="11" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
       <c r="I11" s="81" t="s">
         <v>171</v>
       </c>
@@ -3171,10 +3206,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W11" s="97"/>
+      <c r="W11" s="96"/>
     </row>
     <row r="12" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="103"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="81" t="s">
         <v>166</v>
       </c>
@@ -3193,10 +3228,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W12" s="97"/>
+      <c r="W12" s="96"/>
     </row>
     <row r="13" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="85" t="s">
         <v>164</v>
       </c>
@@ -3215,10 +3250,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13" s="97"/>
+      <c r="W13" s="96"/>
     </row>
     <row r="14" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="104"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
@@ -3283,31 +3318,31 @@
         <f t="shared" ref="V14" si="12">SUM(V9:V13)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="98"/>
+      <c r="W14" s="97"/>
       <c r="X14" s="71">
         <f>SUM(X9:X13)</f>
         <v>31640000</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="102">
+      <c r="A15" s="104">
         <v>3</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="91" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="E15" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="93">
+      <c r="F15" s="89"/>
+      <c r="G15" s="91">
         <v>12000000</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="93">
         <f>G15-J20</f>
         <v>12000000</v>
       </c>
@@ -3330,18 +3365,18 @@
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
-      <c r="W15" s="96"/>
+      <c r="W15" s="118"/>
       <c r="X15" s="59"/>
     </row>
     <row r="16" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="103"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="90"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="94"/>
       <c r="I16" s="81" t="s">
         <v>150</v>
       </c>
@@ -3349,19 +3384,19 @@
         <f t="shared" ref="J16:J19" si="13">SUM(K16:V16)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="97"/>
+      <c r="W16" s="96"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="103"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
       <c r="I17" s="81" t="s">
         <v>171</v>
       </c>
@@ -3369,10 +3404,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W17" s="97"/>
+      <c r="W17" s="96"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="103"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="81" t="s">
         <v>166</v>
       </c>
@@ -3391,10 +3426,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W18" s="97"/>
+      <c r="W18" s="96"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="103"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="85" t="s">
         <v>164</v>
       </c>
@@ -3413,10 +3448,10 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W19" s="97"/>
+      <c r="W19" s="96"/>
     </row>
     <row r="20" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="104"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="86" t="s">
         <v>175</v>
       </c>
@@ -3481,31 +3516,31 @@
         <f t="shared" ref="V20" si="23">SUM(V15:V19)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="98"/>
+      <c r="W20" s="97"/>
       <c r="X20" s="71">
         <f>SUM(X15:X19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="102">
+      <c r="A21" s="104">
         <v>4</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="91" t="s">
+      <c r="C21" s="108"/>
+      <c r="D21" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="93">
+      <c r="F21" s="89"/>
+      <c r="G21" s="91">
         <v>3500000</v>
       </c>
-      <c r="H21" s="89">
+      <c r="H21" s="93">
         <f>G21-J26</f>
         <v>3500000</v>
       </c>
@@ -3528,18 +3563,18 @@
       <c r="T21" s="59"/>
       <c r="U21" s="59"/>
       <c r="V21" s="59"/>
-      <c r="W21" s="96"/>
+      <c r="W21" s="118"/>
       <c r="X21" s="59"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="103"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="90"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="94"/>
       <c r="I22" s="81" t="s">
         <v>150</v>
       </c>
@@ -3547,14 +3582,14 @@
         <f t="shared" ref="J22:J25" si="24">SUM(K22:V22)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="97"/>
+      <c r="W22" s="96"/>
     </row>
     <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="103"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="81" t="s">
         <v>193</v>
       </c>
@@ -3567,21 +3602,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W23" s="97"/>
+      <c r="W23" s="96"/>
     </row>
     <row r="24" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="103"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
       <c r="I24" s="81" t="s">
         <v>172</v>
       </c>
@@ -3589,10 +3624,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W24" s="97"/>
+      <c r="W24" s="96"/>
     </row>
     <row r="25" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="103"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="85" t="s">
         <v>164</v>
       </c>
@@ -3611,10 +3646,10 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W25" s="97"/>
+      <c r="W25" s="96"/>
     </row>
     <row r="26" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="104"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="86" t="s">
         <v>175</v>
       </c>
@@ -3679,34 +3714,34 @@
         <f t="shared" ref="V26" si="34">SUM(V21:V25)</f>
         <v>0</v>
       </c>
-      <c r="W26" s="98"/>
+      <c r="W26" s="97"/>
       <c r="X26" s="71">
         <f>SUM(X21:X25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="102">
+      <c r="A27" s="104">
         <v>5</v>
       </c>
-      <c r="B27" s="105" t="s">
+      <c r="B27" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="91" t="s">
+      <c r="C27" s="108"/>
+      <c r="D27" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="91" t="s">
+      <c r="E27" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="91" t="s">
+      <c r="F27" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="93">
+      <c r="G27" s="91">
         <f>X32</f>
         <v>1250000000</v>
       </c>
-      <c r="H27" s="89">
+      <c r="H27" s="93">
         <f>G27-J32</f>
         <v>1250000000</v>
       </c>
@@ -3729,7 +3764,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="114" t="s">
+      <c r="W27" s="95" t="s">
         <v>201</v>
       </c>
       <c r="X27" s="59">
@@ -3738,14 +3773,14 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="103"/>
-      <c r="B28" s="107"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="90"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="94"/>
       <c r="I28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3753,19 +3788,19 @@
         <f t="shared" ref="J28:J31" si="35">SUM(K28:V28)</f>
         <v>0</v>
       </c>
-      <c r="W28" s="97"/>
+      <c r="W28" s="96"/>
     </row>
     <row r="29" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="103"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
       <c r="F29" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
       <c r="I29" s="81" t="s">
         <v>171</v>
       </c>
@@ -3773,10 +3808,10 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W29" s="97"/>
+      <c r="W29" s="96"/>
     </row>
     <row r="30" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="103"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="81" t="s">
         <v>166</v>
       </c>
@@ -3795,10 +3830,10 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W30" s="97"/>
+      <c r="W30" s="96"/>
     </row>
     <row r="31" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="103"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="85" t="s">
         <v>164</v>
       </c>
@@ -3817,15 +3852,15 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W31" s="97"/>
+      <c r="W31" s="96"/>
     </row>
     <row r="32" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="104"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="86" t="s">
         <v>175</v>
       </c>
       <c r="C32" s="101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D32" s="101"/>
       <c r="E32" s="101"/>
@@ -3887,34 +3922,34 @@
         <f t="shared" ref="V32" si="45">SUM(V27:V31)</f>
         <v>0</v>
       </c>
-      <c r="W32" s="98"/>
+      <c r="W32" s="97"/>
       <c r="X32" s="71">
         <f>SUM(X27:X31)</f>
         <v>1250000000</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="102">
+      <c r="A33" s="104">
         <v>6</v>
       </c>
-      <c r="B33" s="105" t="s">
+      <c r="B33" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="91" t="s">
+      <c r="C33" s="108"/>
+      <c r="D33" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="91" t="s">
+      <c r="E33" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="91" t="s">
+      <c r="F33" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="93">
+      <c r="G33" s="91">
         <f>X38</f>
         <v>404898</v>
       </c>
-      <c r="H33" s="89">
+      <c r="H33" s="93">
         <f>G33-J38</f>
         <v>404898</v>
       </c>
@@ -3937,22 +3972,22 @@
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
-      <c r="W33" s="114" t="s">
-        <v>205</v>
+      <c r="W33" s="95" t="s">
+        <v>204</v>
       </c>
       <c r="X33" s="59">
         <v>404898</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="103"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="90"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="94"/>
       <c r="I34" s="81" t="s">
         <v>150</v>
       </c>
@@ -3960,19 +3995,19 @@
         <f t="shared" ref="J34:J37" si="46">SUM(K34:V34)</f>
         <v>0</v>
       </c>
-      <c r="W34" s="97"/>
+      <c r="W34" s="96"/>
     </row>
     <row r="35" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="103"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
       <c r="I35" s="81" t="s">
         <v>171</v>
       </c>
@@ -3980,15 +4015,15 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W35" s="97"/>
+      <c r="W35" s="96"/>
     </row>
     <row r="36" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="81" t="s">
         <v>166</v>
       </c>
       <c r="C36" s="99" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D36" s="99"/>
       <c r="E36" s="99"/>
@@ -4002,10 +4037,10 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W36" s="97"/>
+      <c r="W36" s="96"/>
     </row>
     <row r="37" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="103"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="85" t="s">
         <v>164</v>
       </c>
@@ -4024,15 +4059,15 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W37" s="97"/>
+      <c r="W37" s="96"/>
     </row>
     <row r="38" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="104"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="86" t="s">
         <v>175</v>
       </c>
       <c r="C38" s="101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="101"/>
       <c r="E38" s="101"/>
@@ -4094,7 +4129,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="W38" s="98"/>
+      <c r="W38" s="97"/>
       <c r="X38" s="71">
         <f>SUM(X33:X37)</f>
         <v>404898</v>
@@ -4102,25 +4137,46 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="W33:W38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="W27:W32"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="W15:W20"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="W3:W8"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:C23"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C5"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C6:H6"/>
@@ -4132,50 +4188,29 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:C17"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="W15:W20"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="B27:C29"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="W27:W32"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="W33:W38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1:H3 H39:H1048576">
@@ -4216,10 +4251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4543,7 +4578,7 @@
         <v>4308.5</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>74</v>
@@ -4824,11 +4859,11 @@
         <v>2550000</v>
       </c>
       <c r="E20" s="46">
-        <f t="shared" ref="E20" si="3">D20*0.1</f>
+        <f t="shared" ref="E20:E21" si="3">D20*0.1</f>
         <v>255000</v>
       </c>
       <c r="F20" s="46">
-        <f t="shared" ref="F20" si="4">SUM(D20:E20)</f>
+        <f t="shared" ref="F20:F21" si="4">SUM(D20:E20)</f>
         <v>2805000</v>
       </c>
       <c r="G20" t="s">
@@ -4840,6 +4875,36 @@
       <c r="I20" s="44"/>
       <c r="J20" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="121"/>
+      <c r="B21" s="121" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="123">
+        <v>5000000</v>
+      </c>
+      <c r="E21" s="123">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="F21" s="123">
+        <f t="shared" si="4"/>
+        <v>5500000</v>
+      </c>
+      <c r="G21" s="124" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="125" t="s">
+        <v>211</v>
+      </c>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/세금계산서 대상.xlsx
+++ b/세금계산서 대상.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info1\Desktop\work\4. 세금계산서 관련\세금계산서 대상\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\10.인포솔루션\10.거래내역\15.세금계산서관리\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="2023년 Project" sheetId="5" r:id="rId1"/>
@@ -146,6 +146,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>실계약금액</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>환율</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없으면</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>빈값</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -772,7 +874,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="215">
   <si>
     <t>통화</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1612,15 +1714,20 @@
     <t>김종철, 김성민, 종희선</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>23023-03-05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2087,7 +2194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2355,44 +2462,86 @@
     <xf numFmtId="41" fontId="13" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2400,78 +2549,46 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2792,11 +2909,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38:H38"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2818,13 +2935,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="116" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="103"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="63"/>
       <c r="G1" s="64"/>
       <c r="H1" s="78"/>
@@ -2848,11 +2965,11 @@
       <c r="A2" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
       <c r="E2" s="77" t="s">
         <v>169</v>
       </c>
@@ -2915,27 +3032,27 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104">
+      <c r="A3" s="105">
         <v>1</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="91">
-        <f>X8</f>
+      <c r="G3" s="121">
+        <f>IF(H4="", G4, G4*H4)</f>
         <v>388000000</v>
       </c>
-      <c r="H3" s="93">
+      <c r="H3" s="122">
         <f>G3-J8</f>
         <v>388000000</v>
       </c>
@@ -2958,7 +3075,7 @@
       <c r="T3" s="59"/>
       <c r="U3" s="59"/>
       <c r="V3" s="59"/>
-      <c r="W3" s="95" t="s">
+      <c r="W3" s="94" t="s">
         <v>200</v>
       </c>
       <c r="X3" s="59">
@@ -2966,14 +3083,15 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="94"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="120">
+        <v>388000000</v>
+      </c>
       <c r="I4" s="81" t="s">
         <v>150</v>
       </c>
@@ -2981,19 +3099,21 @@
         <f t="shared" ref="J4:J7" si="0">SUM(K4:V4)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="96"/>
+      <c r="W4" s="95"/>
     </row>
     <row r="5" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
+      <c r="G5" s="125">
+        <v>44991</v>
+      </c>
+      <c r="H5" s="125"/>
       <c r="I5" s="81" t="s">
         <v>171</v>
       </c>
@@ -3001,21 +3121,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="96"/>
+      <c r="W5" s="95"/>
     </row>
     <row r="6" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="105"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
       <c r="I6" s="81" t="s">
         <v>172</v>
       </c>
@@ -3023,21 +3143,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="96"/>
+      <c r="W6" s="95"/>
     </row>
     <row r="7" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="105"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
       <c r="I7" s="81" t="s">
         <v>173</v>
       </c>
@@ -3045,21 +3165,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="96"/>
+      <c r="W7" s="95"/>
     </row>
     <row r="8" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="101" t="s">
+      <c r="C8" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
       <c r="I8" s="83" t="s">
         <v>174</v>
       </c>
@@ -3115,32 +3235,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W8" s="97"/>
+      <c r="W8" s="96"/>
       <c r="X8" s="71">
         <f>SUM(X3:X7)</f>
         <v>388000000</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="104">
+      <c r="A9" s="105">
         <v>2</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="89" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="91">
-        <f>X14</f>
+      <c r="F9" s="100"/>
+      <c r="G9" s="121">
+        <f>IF(H10="", G10, G10*H10)</f>
         <v>31640000</v>
       </c>
-      <c r="H9" s="93">
+      <c r="H9" s="122">
         <f>G9-J14</f>
         <v>31640000</v>
       </c>
@@ -3163,7 +3283,7 @@
       <c r="T9" s="59"/>
       <c r="U9" s="59"/>
       <c r="V9" s="59"/>
-      <c r="W9" s="118" t="s">
+      <c r="W9" s="102" t="s">
         <v>192</v>
       </c>
       <c r="X9" s="59">
@@ -3171,14 +3291,15 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="105"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="94"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="120">
+        <v>31640000</v>
+      </c>
       <c r="I10" s="81" t="s">
         <v>150</v>
       </c>
@@ -3186,19 +3307,19 @@
         <f t="shared" ref="J10:J13" si="2">SUM(K10:V10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="96"/>
+      <c r="W10" s="95"/>
     </row>
     <row r="11" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="81" t="s">
         <v>171</v>
       </c>
@@ -3206,21 +3327,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W11" s="96"/>
+      <c r="W11" s="95"/>
     </row>
     <row r="12" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="105"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C12" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
       <c r="I12" s="81" t="s">
         <v>172</v>
       </c>
@@ -3228,21 +3349,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W12" s="96"/>
+      <c r="W12" s="95"/>
     </row>
     <row r="13" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="105"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
       <c r="I13" s="81" t="s">
         <v>173</v>
       </c>
@@ -3250,19 +3371,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13" s="96"/>
+      <c r="W13" s="95"/>
     </row>
     <row r="14" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="83" t="s">
         <v>174</v>
       </c>
@@ -3318,31 +3439,32 @@
         <f t="shared" ref="V14" si="12">SUM(V9:V13)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="97"/>
+      <c r="W14" s="96"/>
       <c r="X14" s="71">
         <f>SUM(X9:X13)</f>
         <v>31640000</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="104">
+      <c r="A15" s="105">
         <v>3</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="89" t="s">
+      <c r="C15" s="109"/>
+      <c r="D15" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="E15" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="91">
+      <c r="F15" s="100"/>
+      <c r="G15" s="121">
+        <f>IF(H16="", G16, G16*H16)</f>
         <v>12000000</v>
       </c>
-      <c r="H15" s="93">
+      <c r="H15" s="122">
         <f>G15-J20</f>
         <v>12000000</v>
       </c>
@@ -3365,18 +3487,19 @@
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
-      <c r="W15" s="118"/>
+      <c r="W15" s="102"/>
       <c r="X15" s="59"/>
     </row>
     <row r="16" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="105"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="94"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="120">
+        <v>12000000</v>
+      </c>
       <c r="I16" s="81" t="s">
         <v>150</v>
       </c>
@@ -3384,19 +3507,19 @@
         <f t="shared" ref="J16:J19" si="13">SUM(K16:V16)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="96"/>
+      <c r="W16" s="95"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="105"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="81" t="s">
         <v>171</v>
       </c>
@@ -3404,21 +3527,21 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W17" s="96"/>
+      <c r="W17" s="95"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="105"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="99" t="s">
+      <c r="C18" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
       <c r="I18" s="81" t="s">
         <v>172</v>
       </c>
@@ -3426,21 +3549,21 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W18" s="96"/>
+      <c r="W18" s="95"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="105"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
       <c r="I19" s="81" t="s">
         <v>173</v>
       </c>
@@ -3448,19 +3571,19 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W19" s="96"/>
+      <c r="W19" s="95"/>
     </row>
     <row r="20" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
+      <c r="A20" s="107"/>
       <c r="B20" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="83" t="s">
         <v>174</v>
       </c>
@@ -3516,31 +3639,32 @@
         <f t="shared" ref="V20" si="23">SUM(V15:V19)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="97"/>
+      <c r="W20" s="96"/>
       <c r="X20" s="71">
         <f>SUM(X15:X19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="104">
+      <c r="A21" s="105">
         <v>4</v>
       </c>
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="89" t="s">
+      <c r="C21" s="109"/>
+      <c r="D21" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="89" t="s">
+      <c r="E21" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="91">
+      <c r="F21" s="100"/>
+      <c r="G21" s="121">
+        <f>IF(H22="", G22, G22*H22)</f>
         <v>3500000</v>
       </c>
-      <c r="H21" s="93">
+      <c r="H21" s="122">
         <f>G21-J26</f>
         <v>3500000</v>
       </c>
@@ -3563,18 +3687,19 @@
       <c r="T21" s="59"/>
       <c r="U21" s="59"/>
       <c r="V21" s="59"/>
-      <c r="W21" s="118"/>
+      <c r="W21" s="102"/>
       <c r="X21" s="59"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="105"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="94"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="120">
+        <v>3500000</v>
+      </c>
       <c r="I22" s="81" t="s">
         <v>150</v>
       </c>
@@ -3582,19 +3707,19 @@
         <f t="shared" ref="J22:J25" si="24">SUM(K22:V22)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="96"/>
+      <c r="W22" s="95"/>
     </row>
     <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="105"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
       <c r="I23" s="81" t="s">
         <v>171</v>
       </c>
@@ -3602,21 +3727,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W23" s="96"/>
+      <c r="W23" s="95"/>
     </row>
     <row r="24" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="105"/>
+      <c r="A24" s="106"/>
       <c r="B24" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="119" t="s">
+      <c r="C24" s="103" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
       <c r="I24" s="81" t="s">
         <v>172</v>
       </c>
@@ -3624,21 +3749,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W24" s="96"/>
+      <c r="W24" s="95"/>
     </row>
     <row r="25" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="105"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="100" t="s">
+      <c r="C25" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
       <c r="I25" s="81" t="s">
         <v>173</v>
       </c>
@@ -3646,19 +3771,19 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W25" s="96"/>
+      <c r="W25" s="95"/>
     </row>
     <row r="26" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="106"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="83" t="s">
         <v>174</v>
       </c>
@@ -3714,34 +3839,34 @@
         <f t="shared" ref="V26" si="34">SUM(V21:V25)</f>
         <v>0</v>
       </c>
-      <c r="W26" s="97"/>
+      <c r="W26" s="96"/>
       <c r="X26" s="71">
         <f>SUM(X21:X25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="104">
+      <c r="A27" s="105">
         <v>5</v>
       </c>
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="114" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="89" t="s">
+      <c r="C27" s="109"/>
+      <c r="D27" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="89" t="s">
+      <c r="E27" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="89" t="s">
+      <c r="F27" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="91">
-        <f>X32</f>
+      <c r="G27" s="123">
+        <f>IF(H28="", G28, G28*H28)</f>
         <v>1250000000</v>
       </c>
-      <c r="H27" s="93">
+      <c r="H27" s="124">
         <f>G27-J32</f>
         <v>1250000000</v>
       </c>
@@ -3764,7 +3889,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="95" t="s">
+      <c r="W27" s="94" t="s">
         <v>201</v>
       </c>
       <c r="X27" s="59">
@@ -3773,14 +3898,16 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="105"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="94"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="120">
+        <v>1250000000</v>
+      </c>
+      <c r="H28" s="120"/>
       <c r="I28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3788,19 +3915,21 @@
         <f t="shared" ref="J28:J31" si="35">SUM(K28:V28)</f>
         <v>0</v>
       </c>
-      <c r="W28" s="96"/>
+      <c r="W28" s="95"/>
     </row>
     <row r="29" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="105"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
       <c r="F29" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
+      <c r="G29" s="125" t="s">
+        <v>214</v>
+      </c>
+      <c r="H29" s="125"/>
       <c r="I29" s="81" t="s">
         <v>171</v>
       </c>
@@ -3808,21 +3937,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W29" s="96"/>
+      <c r="W29" s="95"/>
     </row>
     <row r="30" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="105"/>
+      <c r="A30" s="106"/>
       <c r="B30" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
       <c r="I30" s="81" t="s">
         <v>172</v>
       </c>
@@ -3830,21 +3959,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W30" s="96"/>
+      <c r="W30" s="95"/>
     </row>
     <row r="31" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="105"/>
+      <c r="A31" s="106"/>
       <c r="B31" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
       <c r="I31" s="81" t="s">
         <v>173</v>
       </c>
@@ -3852,21 +3981,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W31" s="96"/>
+      <c r="W31" s="95"/>
     </row>
     <row r="32" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="106"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
       <c r="I32" s="83" t="s">
         <v>174</v>
       </c>
@@ -3922,36 +4051,36 @@
         <f t="shared" ref="V32" si="45">SUM(V27:V31)</f>
         <v>0</v>
       </c>
-      <c r="W32" s="97"/>
+      <c r="W32" s="96"/>
       <c r="X32" s="71">
         <f>SUM(X27:X31)</f>
         <v>1250000000</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="104">
+      <c r="A33" s="105">
         <v>6</v>
       </c>
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="114" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="89" t="s">
+      <c r="C33" s="109"/>
+      <c r="D33" s="100" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="89" t="s">
+      <c r="F33" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="91">
-        <f>X38</f>
-        <v>404898</v>
-      </c>
-      <c r="H33" s="93">
+      <c r="G33" s="121">
+        <f>G34*H34</f>
+        <v>496000050</v>
+      </c>
+      <c r="H33" s="122">
         <f>G33-J38</f>
-        <v>404898</v>
+        <v>496000050</v>
       </c>
       <c r="I33" s="82" t="s">
         <v>170</v>
@@ -3972,7 +4101,7 @@
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
-      <c r="W33" s="95" t="s">
+      <c r="W33" s="94" t="s">
         <v>204</v>
       </c>
       <c r="X33" s="59">
@@ -3980,14 +4109,18 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="105"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="94"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="120">
+        <v>404898</v>
+      </c>
+      <c r="H34" s="120">
+        <v>1225</v>
+      </c>
       <c r="I34" s="81" t="s">
         <v>150</v>
       </c>
@@ -3995,19 +4128,19 @@
         <f t="shared" ref="J34:J37" si="46">SUM(K34:V34)</f>
         <v>0</v>
       </c>
-      <c r="W34" s="96"/>
+      <c r="W34" s="95"/>
     </row>
     <row r="35" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="105"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
       <c r="F35" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G35" s="98"/>
-      <c r="H35" s="98"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
       <c r="I35" s="81" t="s">
         <v>171</v>
       </c>
@@ -4015,21 +4148,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W35" s="96"/>
+      <c r="W35" s="95"/>
     </row>
     <row r="36" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="105"/>
+      <c r="A36" s="106"/>
       <c r="B36" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
       <c r="I36" s="81" t="s">
         <v>172</v>
       </c>
@@ -4037,21 +4170,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W36" s="96"/>
+      <c r="W36" s="95"/>
     </row>
     <row r="37" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="105"/>
+      <c r="A37" s="106"/>
       <c r="B37" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="100" t="s">
+      <c r="C37" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
       <c r="I37" s="81" t="s">
         <v>173</v>
       </c>
@@ -4059,21 +4192,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W37" s="96"/>
+      <c r="W37" s="95"/>
     </row>
     <row r="38" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="106"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
       <c r="I38" s="83" t="s">
         <v>174</v>
       </c>
@@ -4129,49 +4262,35 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="W38" s="97"/>
+      <c r="W38" s="96"/>
       <c r="X38" s="71">
         <f>SUM(X33:X37)</f>
         <v>404898</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="W27:W32"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="W15:W20"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G17:H17"/>
+  <mergeCells count="62">
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="W33:W38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
     <mergeCell ref="W3:W8"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:C23"/>
@@ -4188,58 +4307,60 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:C17"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="W33:W38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="W15:W20"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="W27:W32"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1:H3 H39:H1048576">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4253,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4878,32 +4999,32 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="121"/>
-      <c r="B21" s="121" t="s">
+      <c r="A21" s="89"/>
+      <c r="B21" s="89" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="123">
+      <c r="D21" s="91">
         <v>5000000</v>
       </c>
-      <c r="E21" s="123">
+      <c r="E21" s="91">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="F21" s="123">
+      <c r="F21" s="91">
         <f t="shared" si="4"/>
         <v>5500000</v>
       </c>
-      <c r="G21" s="124" t="s">
+      <c r="G21" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="H21" s="125" t="s">
+      <c r="H21" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121" t="s">
+      <c r="I21" s="89"/>
+      <c r="J21" s="89" t="s">
         <v>212</v>
       </c>
     </row>

--- a/세금계산서 대상.xlsx
+++ b/세금계산서 대상.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\10.인포솔루션\10.거래내역\15.세금계산서관리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info1\Desktop\work\4. 세금계산서 관련\세금계산서 대상\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -874,7 +874,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="216">
   <si>
     <t>통화</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1718,6 +1718,10 @@
     <t>23023-03-05</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>잔금 : 2023.05.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1727,7 +1731,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2477,6 +2481,27 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2486,6 +2511,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2495,10 +2523,52 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2507,73 +2577,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2581,14 +2585,7 @@
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -2913,7 +2910,7 @@
       <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2935,13 +2932,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="63"/>
       <c r="G1" s="64"/>
       <c r="H1" s="78"/>
@@ -2965,11 +2962,11 @@
       <c r="A2" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="77" t="s">
         <v>169</v>
       </c>
@@ -3032,27 +3029,27 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105">
+      <c r="A3" s="110">
         <v>1</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="100" t="s">
+      <c r="C3" s="114"/>
+      <c r="D3" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="121">
+      <c r="G3" s="95">
         <f>IF(H4="", G4, G4*H4)</f>
         <v>388000000</v>
       </c>
-      <c r="H3" s="122">
+      <c r="H3" s="96">
         <f>G3-J8</f>
         <v>388000000</v>
       </c>
@@ -3075,7 +3072,7 @@
       <c r="T3" s="59"/>
       <c r="U3" s="59"/>
       <c r="V3" s="59"/>
-      <c r="W3" s="94" t="s">
+      <c r="W3" s="101" t="s">
         <v>200</v>
       </c>
       <c r="X3" s="59">
@@ -3083,13 +3080,13 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="115"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="120">
+      <c r="C4" s="116"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="94">
         <v>388000000</v>
       </c>
       <c r="I4" s="81" t="s">
@@ -3099,21 +3096,21 @@
         <f t="shared" ref="J4:J7" si="0">SUM(K4:V4)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="95"/>
+      <c r="W4" s="102"/>
     </row>
     <row r="5" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="115"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="125">
+      <c r="G5" s="104">
         <v>44991</v>
       </c>
-      <c r="H5" s="125"/>
+      <c r="H5" s="104"/>
       <c r="I5" s="81" t="s">
         <v>171</v>
       </c>
@@ -3121,21 +3118,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="95"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="106"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
       <c r="I6" s="81" t="s">
         <v>172</v>
       </c>
@@ -3143,21 +3140,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="95"/>
+      <c r="W6" s="102"/>
     </row>
     <row r="7" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="106"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="81" t="s">
         <v>173</v>
       </c>
@@ -3165,21 +3162,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="95"/>
+      <c r="W7" s="102"/>
     </row>
     <row r="8" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107"/>
+      <c r="A8" s="112"/>
       <c r="B8" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="107" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
       <c r="I8" s="83" t="s">
         <v>174</v>
       </c>
@@ -3235,32 +3232,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W8" s="96"/>
+      <c r="W8" s="103"/>
       <c r="X8" s="71">
         <f>SUM(X3:X7)</f>
         <v>388000000</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="105">
+      <c r="A9" s="110">
         <v>2</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="100" t="s">
+      <c r="C9" s="114"/>
+      <c r="D9" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="121">
+      <c r="F9" s="99"/>
+      <c r="G9" s="95">
         <f>IF(H10="", G10, G10*H10)</f>
         <v>31640000</v>
       </c>
-      <c r="H9" s="122">
+      <c r="H9" s="96">
         <f>G9-J14</f>
         <v>31640000</v>
       </c>
@@ -3283,7 +3280,7 @@
       <c r="T9" s="59"/>
       <c r="U9" s="59"/>
       <c r="V9" s="59"/>
-      <c r="W9" s="102" t="s">
+      <c r="W9" s="124" t="s">
         <v>192</v>
       </c>
       <c r="X9" s="59">
@@ -3291,13 +3288,13 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="115"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="120">
+      <c r="C10" s="116"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="94">
         <v>31640000</v>
       </c>
       <c r="I10" s="81" t="s">
@@ -3307,19 +3304,19 @@
         <f t="shared" ref="J10:J13" si="2">SUM(K10:V10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="95"/>
+      <c r="W10" s="102"/>
     </row>
     <row r="11" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="106"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="115"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
       <c r="I11" s="81" t="s">
         <v>171</v>
       </c>
@@ -3327,21 +3324,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W11" s="95"/>
+      <c r="W11" s="102"/>
     </row>
     <row r="12" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
       <c r="I12" s="81" t="s">
         <v>172</v>
       </c>
@@ -3349,21 +3346,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W12" s="95"/>
+      <c r="W12" s="102"/>
     </row>
     <row r="13" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
       <c r="I13" s="81" t="s">
         <v>173</v>
       </c>
@@ -3371,19 +3368,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13" s="95"/>
+      <c r="W13" s="102"/>
     </row>
     <row r="14" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="107"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
       <c r="I14" s="83" t="s">
         <v>174</v>
       </c>
@@ -3439,32 +3436,32 @@
         <f t="shared" ref="V14" si="12">SUM(V9:V13)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="96"/>
+      <c r="W14" s="103"/>
       <c r="X14" s="71">
         <f>SUM(X9:X13)</f>
         <v>31640000</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="105">
+      <c r="A15" s="110">
         <v>3</v>
       </c>
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="100" t="s">
+      <c r="C15" s="114"/>
+      <c r="D15" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="100"/>
-      <c r="G15" s="121">
+      <c r="F15" s="99"/>
+      <c r="G15" s="95">
         <f>IF(H16="", G16, G16*H16)</f>
         <v>12000000</v>
       </c>
-      <c r="H15" s="122">
+      <c r="H15" s="96">
         <f>G15-J20</f>
         <v>12000000</v>
       </c>
@@ -3487,17 +3484,17 @@
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
-      <c r="W15" s="102"/>
+      <c r="W15" s="124"/>
       <c r="X15" s="59"/>
     </row>
     <row r="16" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
+      <c r="A16" s="111"/>
       <c r="B16" s="115"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="120">
+      <c r="C16" s="116"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="94">
         <v>12000000</v>
       </c>
       <c r="I16" s="81" t="s">
@@ -3507,19 +3504,19 @@
         <f t="shared" ref="J16:J19" si="13">SUM(K16:V16)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="95"/>
+      <c r="W16" s="102"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
+      <c r="A17" s="111"/>
       <c r="B17" s="115"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
       <c r="I17" s="81" t="s">
         <v>171</v>
       </c>
@@ -3527,21 +3524,21 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W17" s="95"/>
+      <c r="W17" s="102"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="106"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
       <c r="I18" s="81" t="s">
         <v>172</v>
       </c>
@@ -3549,21 +3546,21 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W18" s="95"/>
+      <c r="W18" s="102"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
       <c r="I19" s="81" t="s">
         <v>173</v>
       </c>
@@ -3571,19 +3568,19 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W19" s="95"/>
+      <c r="W19" s="102"/>
     </row>
     <row r="20" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="107"/>
+      <c r="A20" s="112"/>
       <c r="B20" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
       <c r="I20" s="83" t="s">
         <v>174</v>
       </c>
@@ -3639,32 +3636,32 @@
         <f t="shared" ref="V20" si="23">SUM(V15:V19)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="96"/>
+      <c r="W20" s="103"/>
       <c r="X20" s="71">
         <f>SUM(X15:X19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="105">
+      <c r="A21" s="110">
         <v>4</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="100" t="s">
+      <c r="C21" s="114"/>
+      <c r="D21" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="121">
+      <c r="F21" s="99"/>
+      <c r="G21" s="95">
         <f>IF(H22="", G22, G22*H22)</f>
         <v>3500000</v>
       </c>
-      <c r="H21" s="122">
+      <c r="H21" s="96">
         <f>G21-J26</f>
         <v>3500000</v>
       </c>
@@ -3687,17 +3684,17 @@
       <c r="T21" s="59"/>
       <c r="U21" s="59"/>
       <c r="V21" s="59"/>
-      <c r="W21" s="102"/>
+      <c r="W21" s="124"/>
       <c r="X21" s="59"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="106"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="120">
+      <c r="A22" s="111"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="94">
         <v>3500000</v>
       </c>
       <c r="I22" s="81" t="s">
@@ -3707,14 +3704,14 @@
         <f t="shared" ref="J22:J25" si="24">SUM(K22:V22)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="95"/>
+      <c r="W22" s="102"/>
     </row>
     <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="106"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="81" t="s">
         <v>193</v>
       </c>
@@ -3727,21 +3724,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W23" s="95"/>
+      <c r="W23" s="102"/>
     </row>
     <row r="24" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="106"/>
+      <c r="A24" s="111"/>
       <c r="B24" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="125" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
       <c r="I24" s="81" t="s">
         <v>172</v>
       </c>
@@ -3749,21 +3746,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W24" s="95"/>
+      <c r="W24" s="102"/>
     </row>
     <row r="25" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="106"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
       <c r="I25" s="81" t="s">
         <v>173</v>
       </c>
@@ -3771,19 +3768,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W25" s="95"/>
+      <c r="W25" s="102"/>
     </row>
     <row r="26" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="107"/>
+      <c r="A26" s="112"/>
       <c r="B26" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
+      <c r="C26" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
       <c r="I26" s="83" t="s">
         <v>174</v>
       </c>
@@ -3839,34 +3838,34 @@
         <f t="shared" ref="V26" si="34">SUM(V21:V25)</f>
         <v>0</v>
       </c>
-      <c r="W26" s="96"/>
+      <c r="W26" s="103"/>
       <c r="X26" s="71">
         <f>SUM(X21:X25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="105">
+      <c r="A27" s="110">
         <v>5</v>
       </c>
-      <c r="B27" s="114" t="s">
+      <c r="B27" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="100" t="s">
+      <c r="C27" s="114"/>
+      <c r="D27" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="100" t="s">
+      <c r="F27" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="123">
+      <c r="G27" s="97">
         <f>IF(H28="", G28, G28*H28)</f>
         <v>1250000000</v>
       </c>
-      <c r="H27" s="124">
+      <c r="H27" s="98">
         <f>G27-J32</f>
         <v>1250000000</v>
       </c>
@@ -3889,7 +3888,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="94" t="s">
+      <c r="W27" s="101" t="s">
         <v>201</v>
       </c>
       <c r="X27" s="59">
@@ -3898,16 +3897,16 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="106"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="115"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="120">
+      <c r="C28" s="116"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="94">
         <v>1250000000</v>
       </c>
-      <c r="H28" s="120"/>
+      <c r="H28" s="94"/>
       <c r="I28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3915,21 +3914,21 @@
         <f t="shared" ref="J28:J31" si="35">SUM(K28:V28)</f>
         <v>0</v>
       </c>
-      <c r="W28" s="95"/>
+      <c r="W28" s="102"/>
     </row>
     <row r="29" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="106"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="115"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
       <c r="F29" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="125" t="s">
+      <c r="G29" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="H29" s="125"/>
+      <c r="H29" s="104"/>
       <c r="I29" s="81" t="s">
         <v>171</v>
       </c>
@@ -3937,21 +3936,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W29" s="95"/>
+      <c r="W29" s="102"/>
     </row>
     <row r="30" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="106"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="97" t="s">
+      <c r="C30" s="105" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
       <c r="I30" s="81" t="s">
         <v>172</v>
       </c>
@@ -3959,21 +3958,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W30" s="95"/>
+      <c r="W30" s="102"/>
     </row>
     <row r="31" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="106"/>
+      <c r="A31" s="111"/>
       <c r="B31" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="98" t="s">
+      <c r="C31" s="106" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
       <c r="I31" s="81" t="s">
         <v>173</v>
       </c>
@@ -3981,21 +3980,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W31" s="95"/>
+      <c r="W31" s="102"/>
     </row>
     <row r="32" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
+      <c r="A32" s="112"/>
       <c r="B32" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="107" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
       <c r="I32" s="83" t="s">
         <v>174</v>
       </c>
@@ -4051,34 +4050,34 @@
         <f t="shared" ref="V32" si="45">SUM(V27:V31)</f>
         <v>0</v>
       </c>
-      <c r="W32" s="96"/>
+      <c r="W32" s="103"/>
       <c r="X32" s="71">
         <f>SUM(X27:X31)</f>
         <v>1250000000</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="105">
+      <c r="A33" s="110">
         <v>6</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="109"/>
-      <c r="D33" s="100" t="s">
+      <c r="C33" s="114"/>
+      <c r="D33" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="100" t="s">
+      <c r="E33" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="100" t="s">
+      <c r="F33" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="121">
+      <c r="G33" s="95">
         <f>G34*H34</f>
         <v>496000050</v>
       </c>
-      <c r="H33" s="122">
+      <c r="H33" s="96">
         <f>G33-J38</f>
         <v>496000050</v>
       </c>
@@ -4101,7 +4100,7 @@
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
-      <c r="W33" s="94" t="s">
+      <c r="W33" s="101" t="s">
         <v>204</v>
       </c>
       <c r="X33" s="59">
@@ -4109,16 +4108,16 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="106"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="115"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="120">
+      <c r="C34" s="116"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="94">
         <v>404898</v>
       </c>
-      <c r="H34" s="120">
+      <c r="H34" s="94">
         <v>1225</v>
       </c>
       <c r="I34" s="81" t="s">
@@ -4128,19 +4127,19 @@
         <f t="shared" ref="J34:J37" si="46">SUM(K34:V34)</f>
         <v>0</v>
       </c>
-      <c r="W34" s="95"/>
+      <c r="W34" s="102"/>
     </row>
     <row r="35" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="106"/>
+      <c r="A35" s="111"/>
       <c r="B35" s="115"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
       <c r="F35" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
       <c r="I35" s="81" t="s">
         <v>171</v>
       </c>
@@ -4148,21 +4147,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W35" s="95"/>
+      <c r="W35" s="102"/>
     </row>
     <row r="36" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="106"/>
+      <c r="A36" s="111"/>
       <c r="B36" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
       <c r="I36" s="81" t="s">
         <v>172</v>
       </c>
@@ -4170,21 +4169,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W36" s="95"/>
+      <c r="W36" s="102"/>
     </row>
     <row r="37" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="106"/>
+      <c r="A37" s="111"/>
       <c r="B37" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
       <c r="I37" s="81" t="s">
         <v>173</v>
       </c>
@@ -4192,21 +4191,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W37" s="95"/>
+      <c r="W37" s="102"/>
     </row>
     <row r="38" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="107"/>
+      <c r="A38" s="112"/>
       <c r="B38" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="99" t="s">
+      <c r="C38" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
       <c r="I38" s="83" t="s">
         <v>174</v>
       </c>
@@ -4262,7 +4261,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="W38" s="96"/>
+      <c r="W38" s="103"/>
       <c r="X38" s="71">
         <f>SUM(X33:X37)</f>
         <v>404898</v>
@@ -4270,27 +4269,31 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="W33:W38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="W27:W32"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="W15:W20"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="W3:W8"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:C23"/>
@@ -4307,60 +4310,56 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:C17"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="W15:W20"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="W27:W32"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="W33:W38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1:H3 H39:H1048576">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/세금계산서 대상.xlsx
+++ b/세금계산서 대상.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2023년 Project" sheetId="5" r:id="rId1"/>
@@ -874,7 +874,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="218">
   <si>
     <t>통화</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1703,14 +1703,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>전자세금계산서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4월 17일부터 계약</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>김종철, 김성민, 종희선</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1720,6 +1712,22 @@
   </si>
   <si>
     <t>잔금 : 2023.05.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유트로닉스㈜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>㈜한도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2023-07)ERP 유지보수료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6% 세금 포함</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2198,7 +2206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2466,21 +2474,6 @@
     <xf numFmtId="41" fontId="13" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2496,6 +2489,27 @@
     <xf numFmtId="41" fontId="14" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2503,25 +2517,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2529,56 +2567,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2906,11 +2908,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2932,13 +2934,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="118" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
       <c r="F1" s="63"/>
       <c r="G1" s="64"/>
       <c r="H1" s="78"/>
@@ -2962,11 +2964,11 @@
       <c r="A2" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="120" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="121"/>
       <c r="E2" s="77" t="s">
         <v>169</v>
       </c>
@@ -3029,27 +3031,27 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110">
+      <c r="A3" s="107">
         <v>1</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="99" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="95">
+      <c r="G3" s="90">
         <f>IF(H4="", G4, G4*H4)</f>
         <v>388000000</v>
       </c>
-      <c r="H3" s="96">
+      <c r="H3" s="91">
         <f>G3-J8</f>
         <v>388000000</v>
       </c>
@@ -3072,7 +3074,7 @@
       <c r="T3" s="59"/>
       <c r="U3" s="59"/>
       <c r="V3" s="59"/>
-      <c r="W3" s="101" t="s">
+      <c r="W3" s="95" t="s">
         <v>200</v>
       </c>
       <c r="X3" s="59">
@@ -3080,13 +3082,13 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="94">
+      <c r="A4" s="108"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="89">
         <v>388000000</v>
       </c>
       <c r="I4" s="81" t="s">
@@ -3096,21 +3098,21 @@
         <f t="shared" ref="J4:J7" si="0">SUM(K4:V4)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="102"/>
+      <c r="W4" s="96"/>
     </row>
     <row r="5" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="104">
+      <c r="G5" s="94">
         <v>44991</v>
       </c>
-      <c r="H5" s="104"/>
+      <c r="H5" s="94"/>
       <c r="I5" s="81" t="s">
         <v>171</v>
       </c>
@@ -3118,21 +3120,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="102"/>
+      <c r="W5" s="96"/>
     </row>
     <row r="6" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="111"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
       <c r="I6" s="81" t="s">
         <v>172</v>
       </c>
@@ -3140,21 +3142,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="102"/>
+      <c r="W6" s="96"/>
     </row>
     <row r="7" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="111"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
       <c r="I7" s="81" t="s">
         <v>173</v>
       </c>
@@ -3162,21 +3164,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="102"/>
+      <c r="W7" s="96"/>
     </row>
     <row r="8" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="112"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="83" t="s">
         <v>174</v>
       </c>
@@ -3232,32 +3234,32 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W8" s="103"/>
+      <c r="W8" s="97"/>
       <c r="X8" s="71">
         <f>SUM(X3:X7)</f>
         <v>388000000</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110">
+      <c r="A9" s="107">
         <v>2</v>
       </c>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="99" t="s">
+      <c r="C9" s="111"/>
+      <c r="D9" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="95">
+      <c r="F9" s="101"/>
+      <c r="G9" s="90">
         <f>IF(H10="", G10, G10*H10)</f>
         <v>31640000</v>
       </c>
-      <c r="H9" s="96">
+      <c r="H9" s="91">
         <f>G9-J14</f>
         <v>31640000</v>
       </c>
@@ -3280,7 +3282,7 @@
       <c r="T9" s="59"/>
       <c r="U9" s="59"/>
       <c r="V9" s="59"/>
-      <c r="W9" s="124" t="s">
+      <c r="W9" s="103" t="s">
         <v>192</v>
       </c>
       <c r="X9" s="59">
@@ -3288,13 +3290,13 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="94">
+      <c r="A10" s="108"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="89">
         <v>31640000</v>
       </c>
       <c r="I10" s="81" t="s">
@@ -3304,19 +3306,19 @@
         <f t="shared" ref="J10:J13" si="2">SUM(K10:V10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="102"/>
+      <c r="W10" s="96"/>
     </row>
     <row r="11" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
       <c r="I11" s="81" t="s">
         <v>171</v>
       </c>
@@ -3324,21 +3326,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W11" s="102"/>
+      <c r="W11" s="96"/>
     </row>
     <row r="12" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
       <c r="I12" s="81" t="s">
         <v>172</v>
       </c>
@@ -3346,21 +3348,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W12" s="102"/>
+      <c r="W12" s="96"/>
     </row>
     <row r="13" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="81" t="s">
         <v>173</v>
       </c>
@@ -3368,19 +3370,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13" s="102"/>
+      <c r="W13" s="96"/>
     </row>
     <row r="14" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
       <c r="I14" s="83" t="s">
         <v>174</v>
       </c>
@@ -3436,32 +3438,32 @@
         <f t="shared" ref="V14" si="12">SUM(V9:V13)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="103"/>
+      <c r="W14" s="97"/>
       <c r="X14" s="71">
         <f>SUM(X9:X13)</f>
         <v>31640000</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="110">
+      <c r="A15" s="107">
         <v>3</v>
       </c>
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="99" t="s">
+      <c r="C15" s="111"/>
+      <c r="D15" s="101" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="95">
+      <c r="F15" s="101"/>
+      <c r="G15" s="90">
         <f>IF(H16="", G16, G16*H16)</f>
         <v>12000000</v>
       </c>
-      <c r="H15" s="96">
+      <c r="H15" s="91">
         <f>G15-J20</f>
         <v>12000000</v>
       </c>
@@ -3484,17 +3486,17 @@
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
-      <c r="W15" s="124"/>
+      <c r="W15" s="103"/>
       <c r="X15" s="59"/>
     </row>
     <row r="16" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="94">
+      <c r="A16" s="108"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="89">
         <v>12000000</v>
       </c>
       <c r="I16" s="81" t="s">
@@ -3504,19 +3506,19 @@
         <f t="shared" ref="J16:J19" si="13">SUM(K16:V16)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="102"/>
+      <c r="W16" s="96"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
       <c r="F17" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
       <c r="I17" s="81" t="s">
         <v>171</v>
       </c>
@@ -3524,21 +3526,21 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W17" s="102"/>
+      <c r="W17" s="96"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
+      <c r="A18" s="108"/>
       <c r="B18" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="81" t="s">
         <v>172</v>
       </c>
@@ -3546,21 +3548,21 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W18" s="102"/>
+      <c r="W18" s="96"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
+      <c r="A19" s="108"/>
       <c r="B19" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="81" t="s">
         <v>173</v>
       </c>
@@ -3568,19 +3570,19 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W19" s="102"/>
+      <c r="W19" s="96"/>
     </row>
     <row r="20" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="112"/>
+      <c r="A20" s="109"/>
       <c r="B20" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
       <c r="I20" s="83" t="s">
         <v>174</v>
       </c>
@@ -3636,32 +3638,32 @@
         <f t="shared" ref="V20" si="23">SUM(V15:V19)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="103"/>
+      <c r="W20" s="97"/>
       <c r="X20" s="71">
         <f>SUM(X15:X19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="110">
+      <c r="A21" s="107">
         <v>4</v>
       </c>
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="99" t="s">
+      <c r="C21" s="111"/>
+      <c r="D21" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="95">
+      <c r="F21" s="101"/>
+      <c r="G21" s="90">
         <f>IF(H22="", G22, G22*H22)</f>
         <v>3500000</v>
       </c>
-      <c r="H21" s="96">
+      <c r="H21" s="91">
         <f>G21-J26</f>
         <v>3500000</v>
       </c>
@@ -3684,17 +3686,17 @@
       <c r="T21" s="59"/>
       <c r="U21" s="59"/>
       <c r="V21" s="59"/>
-      <c r="W21" s="124"/>
+      <c r="W21" s="103"/>
       <c r="X21" s="59"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="111"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="94">
+      <c r="A22" s="108"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="89">
         <v>3500000</v>
       </c>
       <c r="I22" s="81" t="s">
@@ -3704,19 +3706,19 @@
         <f t="shared" ref="J22:J25" si="24">SUM(K22:V22)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="102"/>
+      <c r="W22" s="96"/>
     </row>
     <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="122"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
       <c r="I23" s="81" t="s">
         <v>171</v>
       </c>
@@ -3724,21 +3726,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W23" s="102"/>
+      <c r="W23" s="96"/>
     </row>
     <row r="24" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="111"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
       <c r="I24" s="81" t="s">
         <v>172</v>
       </c>
@@ -3746,21 +3748,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W24" s="102"/>
+      <c r="W24" s="96"/>
     </row>
     <row r="25" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="106" t="s">
+      <c r="C25" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="81" t="s">
         <v>173</v>
       </c>
@@ -3768,21 +3770,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W25" s="102"/>
+      <c r="W25" s="96"/>
     </row>
     <row r="26" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="112"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="107" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
+      <c r="C26" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
       <c r="I26" s="83" t="s">
         <v>174</v>
       </c>
@@ -3838,34 +3840,34 @@
         <f t="shared" ref="V26" si="34">SUM(V21:V25)</f>
         <v>0</v>
       </c>
-      <c r="W26" s="103"/>
+      <c r="W26" s="97"/>
       <c r="X26" s="71">
         <f>SUM(X21:X25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="110">
+      <c r="A27" s="107">
         <v>5</v>
       </c>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="99" t="s">
+      <c r="C27" s="111"/>
+      <c r="D27" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="99" t="s">
+      <c r="E27" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="99" t="s">
+      <c r="F27" s="101" t="s">
         <v>202</v>
       </c>
-      <c r="G27" s="97">
+      <c r="G27" s="92">
         <f>IF(H28="", G28, G28*H28)</f>
         <v>1250000000</v>
       </c>
-      <c r="H27" s="98">
+      <c r="H27" s="93">
         <f>G27-J32</f>
         <v>1250000000</v>
       </c>
@@ -3888,7 +3890,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="101" t="s">
+      <c r="W27" s="95" t="s">
         <v>201</v>
       </c>
       <c r="X27" s="59">
@@ -3897,16 +3899,16 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="94">
+      <c r="A28" s="108"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="89">
         <v>1250000000</v>
       </c>
-      <c r="H28" s="94"/>
+      <c r="H28" s="89"/>
       <c r="I28" s="81" t="s">
         <v>150</v>
       </c>
@@ -3914,21 +3916,21 @@
         <f t="shared" ref="J28:J31" si="35">SUM(K28:V28)</f>
         <v>0</v>
       </c>
-      <c r="W28" s="102"/>
+      <c r="W28" s="96"/>
     </row>
     <row r="29" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
       <c r="F29" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="H29" s="104"/>
+      <c r="G29" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="H29" s="94"/>
       <c r="I29" s="81" t="s">
         <v>171</v>
       </c>
@@ -3936,21 +3938,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W29" s="102"/>
+      <c r="W29" s="96"/>
     </row>
     <row r="30" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="105" t="s">
+      <c r="C30" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
       <c r="I30" s="81" t="s">
         <v>172</v>
       </c>
@@ -3958,21 +3960,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W30" s="102"/>
+      <c r="W30" s="96"/>
     </row>
     <row r="31" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
+      <c r="A31" s="108"/>
       <c r="B31" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="106" t="s">
+      <c r="C31" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
       <c r="I31" s="81" t="s">
         <v>173</v>
       </c>
@@ -3980,21 +3982,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W31" s="102"/>
+      <c r="W31" s="96"/>
     </row>
     <row r="32" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="112"/>
+      <c r="A32" s="109"/>
       <c r="B32" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="107" t="s">
+      <c r="C32" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
       <c r="I32" s="83" t="s">
         <v>174</v>
       </c>
@@ -4050,34 +4052,34 @@
         <f t="shared" ref="V32" si="45">SUM(V27:V31)</f>
         <v>0</v>
       </c>
-      <c r="W32" s="103"/>
+      <c r="W32" s="97"/>
       <c r="X32" s="71">
         <f>SUM(X27:X31)</f>
         <v>1250000000</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="110">
+      <c r="A33" s="107">
         <v>6</v>
       </c>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="114"/>
-      <c r="D33" s="99" t="s">
+      <c r="C33" s="111"/>
+      <c r="D33" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="99" t="s">
+      <c r="E33" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="99" t="s">
+      <c r="F33" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="95">
+      <c r="G33" s="90">
         <f>G34*H34</f>
         <v>496000050</v>
       </c>
-      <c r="H33" s="96">
+      <c r="H33" s="91">
         <f>G33-J38</f>
         <v>496000050</v>
       </c>
@@ -4100,7 +4102,7 @@
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
-      <c r="W33" s="101" t="s">
+      <c r="W33" s="95" t="s">
         <v>204</v>
       </c>
       <c r="X33" s="59">
@@ -4108,16 +4110,16 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="111"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="94">
+      <c r="A34" s="108"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="89">
         <v>404898</v>
       </c>
-      <c r="H34" s="94">
+      <c r="H34" s="89">
         <v>1225</v>
       </c>
       <c r="I34" s="81" t="s">
@@ -4127,19 +4129,19 @@
         <f t="shared" ref="J34:J37" si="46">SUM(K34:V34)</f>
         <v>0</v>
       </c>
-      <c r="W34" s="102"/>
+      <c r="W34" s="96"/>
     </row>
     <row r="35" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="111"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
       <c r="I35" s="81" t="s">
         <v>171</v>
       </c>
@@ -4147,21 +4149,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W35" s="102"/>
+      <c r="W35" s="96"/>
     </row>
     <row r="36" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="111"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="105" t="s">
-        <v>213</v>
-      </c>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
+      <c r="C36" s="98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
       <c r="I36" s="81" t="s">
         <v>172</v>
       </c>
@@ -4169,21 +4171,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W36" s="102"/>
+      <c r="W36" s="96"/>
     </row>
     <row r="37" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="111"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="106" t="s">
+      <c r="C37" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
       <c r="I37" s="81" t="s">
         <v>173</v>
       </c>
@@ -4191,21 +4193,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W37" s="102"/>
+      <c r="W37" s="96"/>
     </row>
     <row r="38" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="112"/>
+      <c r="A38" s="109"/>
       <c r="B38" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
       <c r="I38" s="83" t="s">
         <v>174</v>
       </c>
@@ -4261,7 +4263,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="W38" s="103"/>
+      <c r="W38" s="97"/>
       <c r="X38" s="71">
         <f>SUM(X33:X37)</f>
         <v>404898</v>
@@ -4269,31 +4271,27 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="W27:W32"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="W15:W20"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="W33:W38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
     <mergeCell ref="W3:W8"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:C23"/>
@@ -4310,27 +4308,31 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:C17"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="W33:W38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="W15:W20"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="W27:W32"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1:H3 H39:H1048576">
@@ -4371,10 +4373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4441,7 +4443,7 @@
         <v>35000</v>
       </c>
       <c r="F3" s="45">
-        <f t="shared" ref="F3:F19" si="1">SUM(D3:E3)</f>
+        <f t="shared" ref="F3:F21" si="1">SUM(D3:E3)</f>
         <v>385000</v>
       </c>
       <c r="G3" s="47" t="s">
@@ -4928,104 +4930,163 @@
       <c r="I18" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="J18" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="46">
+        <v>2400000</v>
+      </c>
+      <c r="E19" s="46">
+        <f t="shared" ref="E19:E20" si="3">D19*0.1</f>
+        <v>240000</v>
+      </c>
+      <c r="F19" s="46">
+        <f t="shared" ref="F19:F20" si="4">SUM(D19:E19)</f>
+        <v>2640000</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="44"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="46">
+        <v>3600000</v>
+      </c>
+      <c r="E20" s="46">
+        <f t="shared" si="3"/>
+        <v>360000</v>
+      </c>
+      <c r="F20" s="46">
+        <f t="shared" si="4"/>
+        <v>3960000</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="44"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B21" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C21" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D21" s="52">
         <v>1663</v>
       </c>
-      <c r="E19" s="45">
-        <v>0</v>
-      </c>
-      <c r="F19" s="46">
+      <c r="E21" s="45">
+        <v>0</v>
+      </c>
+      <c r="F21" s="46">
         <f t="shared" si="1"/>
         <v>1663</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G21" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="43" t="s">
+      <c r="H21" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I21" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+    <row r="22" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="122" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="123" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="52">
+        <v>5000000</v>
+      </c>
+      <c r="E22" s="52">
+        <f>D22*0.06</f>
+        <v>300000</v>
+      </c>
+      <c r="F22" s="52">
+        <f t="shared" ref="F22" si="5">SUM(D22:E22)</f>
+        <v>5300000</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="122" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C23" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D23" s="46">
         <v>2550000</v>
       </c>
-      <c r="E20" s="46">
-        <f t="shared" ref="E20:E21" si="3">D20*0.1</f>
+      <c r="E23" s="46">
+        <f>D23*0.1</f>
         <v>255000</v>
       </c>
-      <c r="F20" s="46">
-        <f t="shared" ref="F20:F21" si="4">SUM(D20:E20)</f>
+      <c r="F23" s="46">
+        <f>SUM(D23:E23)</f>
         <v>2805000</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G23" t="s">
         <v>138</v>
       </c>
-      <c r="H20" s="43" t="s">
+      <c r="H23" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" t="s">
+      <c r="I23" s="44"/>
+      <c r="J23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="91">
-        <v>5000000</v>
-      </c>
-      <c r="E21" s="91">
-        <f t="shared" si="3"/>
-        <v>500000</v>
-      </c>
-      <c r="F21" s="91">
-        <f t="shared" si="4"/>
-        <v>5500000</v>
-      </c>
-      <c r="G21" s="92" t="s">
-        <v>210</v>
-      </c>
-      <c r="H21" s="93" t="s">
-        <v>211</v>
-      </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89" t="s">
-        <v>212</v>
-      </c>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="124"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/세금계산서 대상.xlsx
+++ b/세금계산서 대상.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="2023년 Project" sheetId="5" r:id="rId1"/>
@@ -869,12 +869,670 @@
         </r>
       </text>
     </comment>
+    <comment ref="I40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I58" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I59" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I64" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I65" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I71" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I76" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사부담금</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포함</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기입
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I77" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회사</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>운영비</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="243">
   <si>
     <t>통화</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1679,10 +2337,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>계약금 : 2023.03.15 / 패키지 : 2023.03.20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>계약금 : 2023.02.17</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1728,6 +2382,113 @@
   </si>
   <si>
     <t>6% 세금 포함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토빅스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비에이치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비에이치 EVS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두산전자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>베트남</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추정원가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>법인물류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.05.15~2023.12.14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장영훈, 전호수, 최서영, 김종민, 윤예슬, 손경진, 이영미</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원가관리
+고도화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.07.01~2023.10.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.04.01~2023.11.30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약후 계약금(50%), 완료보고 후잔금(50%)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.06.01~2023.07.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.01~2023.06.30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원화로 115,000,000원
+환율 1,260.7적용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원화로 103,500,000원
+환율 1,260.7적용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.06.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.07.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.07.14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.03.15 / 패키지 : 2023.03.20 / 중도금 : 2023.06.20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2489,18 +3250,33 @@
     <xf numFmtId="41" fontId="14" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2510,10 +3286,52 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2522,72 +3340,64 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2906,13 +3716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19:H19"/>
+      <selection pane="bottomRight" activeCell="F75" sqref="F75:F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2934,13 +3744,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107"/>
       <c r="F1" s="63"/>
       <c r="G1" s="64"/>
       <c r="H1" s="78"/>
@@ -2964,11 +3774,11 @@
       <c r="A2" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="115" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="121"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
       <c r="E2" s="77" t="s">
         <v>169</v>
       </c>
@@ -3031,20 +3841,20 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107">
+      <c r="A3" s="108">
         <v>1</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="112"/>
+      <c r="D3" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="97" t="s">
         <v>203</v>
       </c>
       <c r="G3" s="90">
@@ -3074,7 +3884,7 @@
       <c r="T3" s="59"/>
       <c r="U3" s="59"/>
       <c r="V3" s="59"/>
-      <c r="W3" s="95" t="s">
+      <c r="W3" s="99" t="s">
         <v>200</v>
       </c>
       <c r="X3" s="59">
@@ -3082,12 +3892,12 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
       <c r="G4" s="89">
         <v>388000000</v>
       </c>
@@ -3098,21 +3908,21 @@
         <f t="shared" ref="J4:J7" si="0">SUM(K4:V4)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="96"/>
+      <c r="W4" s="100"/>
     </row>
     <row r="5" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="94">
+      <c r="G5" s="102">
         <v>44991</v>
       </c>
-      <c r="H5" s="94"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="81" t="s">
         <v>171</v>
       </c>
@@ -3120,21 +3930,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="96"/>
+      <c r="W5" s="100"/>
     </row>
     <row r="6" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
       <c r="I6" s="81" t="s">
         <v>172</v>
       </c>
@@ -3142,21 +3952,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="96"/>
+      <c r="W6" s="100"/>
     </row>
     <row r="7" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
       <c r="I7" s="81" t="s">
         <v>173</v>
       </c>
@@ -3164,21 +3974,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="96"/>
+      <c r="W7" s="100"/>
     </row>
     <row r="8" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="109"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="100" t="s">
-        <v>205</v>
-      </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
+      <c r="C8" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
       <c r="I8" s="83" t="s">
         <v>174</v>
       </c>
@@ -3234,27 +4044,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W8" s="97"/>
+      <c r="W8" s="101"/>
       <c r="X8" s="71">
         <f>SUM(X3:X7)</f>
         <v>388000000</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107">
+      <c r="A9" s="108">
         <v>2</v>
       </c>
-      <c r="B9" s="116" t="s">
+      <c r="B9" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="101" t="s">
+      <c r="C9" s="112"/>
+      <c r="D9" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="101"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="90">
         <f>IF(H10="", G10, G10*H10)</f>
         <v>31640000</v>
@@ -3282,7 +4092,7 @@
       <c r="T9" s="59"/>
       <c r="U9" s="59"/>
       <c r="V9" s="59"/>
-      <c r="W9" s="103" t="s">
+      <c r="W9" s="122" t="s">
         <v>192</v>
       </c>
       <c r="X9" s="59">
@@ -3290,12 +4100,12 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="89">
         <v>31640000</v>
       </c>
@@ -3306,19 +4116,19 @@
         <f t="shared" ref="J10:J13" si="2">SUM(K10:V10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="96"/>
+      <c r="W10" s="100"/>
     </row>
     <row r="11" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="81" t="s">
         <v>171</v>
       </c>
@@ -3326,21 +4136,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W11" s="96"/>
+      <c r="W11" s="100"/>
     </row>
     <row r="12" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
       <c r="I12" s="81" t="s">
         <v>172</v>
       </c>
@@ -3348,21 +4158,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W12" s="96"/>
+      <c r="W12" s="100"/>
     </row>
     <row r="13" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
       <c r="I13" s="81" t="s">
         <v>173</v>
       </c>
@@ -3370,19 +4180,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13" s="96"/>
+      <c r="W13" s="100"/>
     </row>
     <row r="14" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="109"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="83" t="s">
         <v>174</v>
       </c>
@@ -3438,27 +4248,27 @@
         <f t="shared" ref="V14" si="12">SUM(V9:V13)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="97"/>
+      <c r="W14" s="101"/>
       <c r="X14" s="71">
         <f>SUM(X9:X13)</f>
         <v>31640000</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="107">
+      <c r="A15" s="108">
         <v>3</v>
       </c>
-      <c r="B15" s="116" t="s">
+      <c r="B15" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="101" t="s">
+      <c r="C15" s="112"/>
+      <c r="D15" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="90">
         <f>IF(H16="", G16, G16*H16)</f>
         <v>12000000</v>
@@ -3486,16 +4296,16 @@
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
-      <c r="W15" s="103"/>
+      <c r="W15" s="122"/>
       <c r="X15" s="59"/>
     </row>
     <row r="16" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="89">
         <v>12000000</v>
       </c>
@@ -3506,19 +4316,19 @@
         <f t="shared" ref="J16:J19" si="13">SUM(K16:V16)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="96"/>
+      <c r="W16" s="100"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
       <c r="I17" s="81" t="s">
         <v>171</v>
       </c>
@@ -3526,21 +4336,21 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W17" s="96"/>
+      <c r="W17" s="100"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="103" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
       <c r="I18" s="81" t="s">
         <v>172</v>
       </c>
@@ -3548,21 +4358,21 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W18" s="96"/>
+      <c r="W18" s="100"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
       <c r="I19" s="81" t="s">
         <v>173</v>
       </c>
@@ -3570,19 +4380,19 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W19" s="96"/>
+      <c r="W19" s="100"/>
     </row>
     <row r="20" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="83" t="s">
         <v>174</v>
       </c>
@@ -3638,27 +4448,27 @@
         <f t="shared" ref="V20" si="23">SUM(V15:V19)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="97"/>
+      <c r="W20" s="101"/>
       <c r="X20" s="71">
         <f>SUM(X15:X19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="107">
+      <c r="A21" s="108">
         <v>4</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="101" t="s">
+      <c r="C21" s="112"/>
+      <c r="D21" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="101" t="s">
+      <c r="E21" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="101"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="90">
         <f>IF(H22="", G22, G22*H22)</f>
         <v>3500000</v>
@@ -3686,16 +4496,16 @@
       <c r="T21" s="59"/>
       <c r="U21" s="59"/>
       <c r="V21" s="59"/>
-      <c r="W21" s="103"/>
+      <c r="W21" s="122"/>
       <c r="X21" s="59"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="89">
         <v>3500000</v>
       </c>
@@ -3706,19 +4516,19 @@
         <f t="shared" ref="J22:J25" si="24">SUM(K22:V22)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="96"/>
+      <c r="W22" s="100"/>
     </row>
     <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
       <c r="I23" s="81" t="s">
         <v>171</v>
       </c>
@@ -3726,21 +4536,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W23" s="96"/>
+      <c r="W23" s="100"/>
     </row>
     <row r="24" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
       <c r="I24" s="81" t="s">
         <v>172</v>
       </c>
@@ -3748,21 +4558,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W24" s="96"/>
+      <c r="W24" s="100"/>
     </row>
     <row r="25" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
       <c r="I25" s="81" t="s">
         <v>173</v>
       </c>
@@ -3770,21 +4580,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W25" s="96"/>
+      <c r="W25" s="100"/>
     </row>
     <row r="26" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="109"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
+      <c r="C26" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
       <c r="I26" s="83" t="s">
         <v>174</v>
       </c>
@@ -3840,27 +4650,27 @@
         <f t="shared" ref="V26" si="34">SUM(V21:V25)</f>
         <v>0</v>
       </c>
-      <c r="W26" s="97"/>
+      <c r="W26" s="101"/>
       <c r="X26" s="71">
         <f>SUM(X21:X25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="107">
+      <c r="A27" s="108">
         <v>5</v>
       </c>
-      <c r="B27" s="116" t="s">
+      <c r="B27" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="101" t="s">
+      <c r="C27" s="112"/>
+      <c r="D27" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="101" t="s">
+      <c r="E27" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="101" t="s">
+      <c r="F27" s="97" t="s">
         <v>202</v>
       </c>
       <c r="G27" s="92">
@@ -3890,7 +4700,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="95" t="s">
+      <c r="W27" s="99" t="s">
         <v>201</v>
       </c>
       <c r="X27" s="59">
@@ -3899,12 +4709,12 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="108"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
       <c r="G28" s="89">
         <v>1250000000</v>
       </c>
@@ -3916,21 +4726,21 @@
         <f t="shared" ref="J28:J31" si="35">SUM(K28:V28)</f>
         <v>0</v>
       </c>
-      <c r="W28" s="96"/>
+      <c r="W28" s="100"/>
     </row>
     <row r="29" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
       <c r="F29" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="H29" s="94"/>
+      <c r="G29" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" s="102"/>
       <c r="I29" s="81" t="s">
         <v>171</v>
       </c>
@@ -3938,21 +4748,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W29" s="96"/>
+      <c r="W29" s="100"/>
     </row>
     <row r="30" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C30" s="103" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="103"/>
       <c r="I30" s="81" t="s">
         <v>172</v>
       </c>
@@ -3960,21 +4770,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W30" s="96"/>
+      <c r="W30" s="100"/>
     </row>
     <row r="31" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="108"/>
+      <c r="A31" s="109"/>
       <c r="B31" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
       <c r="I31" s="81" t="s">
         <v>173</v>
       </c>
@@ -3982,21 +4792,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W31" s="96"/>
+      <c r="W31" s="100"/>
     </row>
     <row r="32" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="109"/>
+      <c r="A32" s="110"/>
       <c r="B32" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
+      <c r="C32" s="105" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
       <c r="I32" s="83" t="s">
         <v>174</v>
       </c>
@@ -4052,27 +4862,27 @@
         <f t="shared" ref="V32" si="45">SUM(V27:V31)</f>
         <v>0</v>
       </c>
-      <c r="W32" s="97"/>
+      <c r="W32" s="101"/>
       <c r="X32" s="71">
         <f>SUM(X27:X31)</f>
         <v>1250000000</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="107">
+      <c r="A33" s="108">
         <v>6</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="101" t="s">
+      <c r="C33" s="112"/>
+      <c r="D33" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="101" t="s">
+      <c r="E33" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="101" t="s">
+      <c r="F33" s="97" t="s">
         <v>197</v>
       </c>
       <c r="G33" s="90">
@@ -4102,7 +4912,7 @@
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
-      <c r="W33" s="95" t="s">
+      <c r="W33" s="99" t="s">
         <v>204</v>
       </c>
       <c r="X33" s="59">
@@ -4110,12 +4920,12 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="108"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
       <c r="G34" s="89">
         <v>404898</v>
       </c>
@@ -4129,19 +4939,19 @@
         <f t="shared" ref="J34:J37" si="46">SUM(K34:V34)</f>
         <v>0</v>
       </c>
-      <c r="W34" s="96"/>
+      <c r="W34" s="100"/>
     </row>
     <row r="35" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
       <c r="F35" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
       <c r="I35" s="81" t="s">
         <v>171</v>
       </c>
@@ -4149,21 +4959,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W35" s="96"/>
+      <c r="W35" s="100"/>
     </row>
     <row r="36" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
+      <c r="A36" s="109"/>
       <c r="B36" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="98" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
+      <c r="C36" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
       <c r="I36" s="81" t="s">
         <v>172</v>
       </c>
@@ -4171,21 +4981,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W36" s="96"/>
+      <c r="W36" s="100"/>
     </row>
     <row r="37" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="108"/>
+      <c r="A37" s="109"/>
       <c r="B37" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
       <c r="I37" s="81" t="s">
         <v>173</v>
       </c>
@@ -4193,21 +5003,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W37" s="96"/>
+      <c r="W37" s="100"/>
     </row>
     <row r="38" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="109"/>
+      <c r="A38" s="110"/>
       <c r="B38" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
+      <c r="C38" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
       <c r="I38" s="83" t="s">
         <v>174</v>
       </c>
@@ -4263,35 +5073,1538 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="W38" s="97"/>
+      <c r="W38" s="101"/>
       <c r="X38" s="71">
         <f>SUM(X33:X37)</f>
         <v>404898</v>
       </c>
     </row>
+    <row r="39" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="108">
+        <v>7</v>
+      </c>
+      <c r="B39" s="111" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="112"/>
+      <c r="D39" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="90">
+        <f>IF(H40="", G40, G40*H40)</f>
+        <v>688000000</v>
+      </c>
+      <c r="H39" s="91">
+        <f>G39-J44</f>
+        <v>688000000</v>
+      </c>
+      <c r="I39" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" s="59">
+        <f>SUM(K39:V39)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="99"/>
+      <c r="X39" s="59">
+        <v>688000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="109"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="89">
+        <v>688000000</v>
+      </c>
+      <c r="H40" s="89"/>
+      <c r="I40" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" s="61">
+        <f t="shared" ref="J40:J43" si="48">SUM(K40:V40)</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="100"/>
+    </row>
+    <row r="41" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="109"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J41" s="61">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="100"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="109"/>
+      <c r="B42" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="103" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J42" s="61">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="100"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="109"/>
+      <c r="B43" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J43" s="61">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="100"/>
+    </row>
+    <row r="44" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="110"/>
+      <c r="B44" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J44" s="71">
+        <f>SUM(K44:V44)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="71">
+        <f>SUM(K39:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="71">
+        <f>SUM(L39:L43)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="71">
+        <f t="shared" ref="M44:V44" si="49">SUM(M39:M43)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="71">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="71">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="71">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="71">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="71">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="71">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="71">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="71">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="71">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="101"/>
+      <c r="X44" s="71">
+        <f>SUM(X39:X43)</f>
+        <v>688000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="108">
+        <v>8</v>
+      </c>
+      <c r="B45" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="112"/>
+      <c r="D45" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="G45" s="90">
+        <f>IF(H46="", G46, G46*H46)</f>
+        <v>52000000</v>
+      </c>
+      <c r="H45" s="91">
+        <f>G45-J50</f>
+        <v>52000000</v>
+      </c>
+      <c r="I45" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J45" s="59">
+        <f>SUM(K45:V45)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="59"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
+      <c r="W45" s="99"/>
+      <c r="X45" s="59">
+        <v>52000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="109"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="89">
+        <v>52000000</v>
+      </c>
+      <c r="H46" s="89"/>
+      <c r="I46" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" s="61">
+        <f t="shared" ref="J46:J49" si="50">SUM(K46:V46)</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="100"/>
+    </row>
+    <row r="47" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="109"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J47" s="61">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="100"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="109"/>
+      <c r="B48" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J48" s="61">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="100"/>
+    </row>
+    <row r="49" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="109"/>
+      <c r="B49" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J49" s="61">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="100"/>
+    </row>
+    <row r="50" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="110"/>
+      <c r="B50" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="105" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J50" s="71">
+        <f>SUM(K50:V50)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="71">
+        <f>SUM(K45:K49)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="71">
+        <f>SUM(L45:L49)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="71">
+        <f t="shared" ref="M50:V50" si="51">SUM(M45:M49)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="71">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="71">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="71">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="71">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="71">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="71">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="71">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="71">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="71">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="101"/>
+      <c r="X50" s="71">
+        <f>SUM(X45:X49)</f>
+        <v>52000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="108">
+        <v>9</v>
+      </c>
+      <c r="B51" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="112"/>
+      <c r="D51" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="G51" s="90">
+        <f>IF(H52="", G52, G52*H52)</f>
+        <v>137000000</v>
+      </c>
+      <c r="H51" s="91">
+        <f>G51-J56</f>
+        <v>137000000</v>
+      </c>
+      <c r="I51" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J51" s="59">
+        <f>SUM(K51:V51)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="99"/>
+      <c r="X51" s="59">
+        <v>137000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="109"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="89">
+        <v>137000000</v>
+      </c>
+      <c r="H52" s="89"/>
+      <c r="I52" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" s="61">
+        <f t="shared" ref="J52:J55" si="52">SUM(K52:V52)</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="100"/>
+    </row>
+    <row r="53" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="109"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J53" s="61">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="100"/>
+    </row>
+    <row r="54" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="109"/>
+      <c r="B54" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J54" s="61">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="100"/>
+    </row>
+    <row r="55" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="109"/>
+      <c r="B55" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J55" s="61">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="100"/>
+    </row>
+    <row r="56" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="110"/>
+      <c r="B56" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J56" s="71">
+        <f>SUM(K56:V56)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="71">
+        <f>SUM(K51:K55)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="71">
+        <f>SUM(L51:L55)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="71">
+        <f t="shared" ref="M56:V56" si="53">SUM(M51:M55)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="71">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="71">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="71">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="71">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="71">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="71">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="71">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="71">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="71">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="101"/>
+      <c r="X56" s="71">
+        <f>SUM(X51:X55)</f>
+        <v>137000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="108">
+        <v>10</v>
+      </c>
+      <c r="B57" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="112"/>
+      <c r="D57" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="F57" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="G57" s="90">
+        <f>IF(H58="", G58, G58*H58)</f>
+        <v>36000000</v>
+      </c>
+      <c r="H57" s="91">
+        <f>G57-J62</f>
+        <v>36000000</v>
+      </c>
+      <c r="I57" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J57" s="59">
+        <f>SUM(K57:V57)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="99"/>
+      <c r="X57" s="59">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="109"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="89">
+        <v>36000000</v>
+      </c>
+      <c r="H58" s="89"/>
+      <c r="I58" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J58" s="61">
+        <f t="shared" ref="J58:J61" si="54">SUM(K58:V58)</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="100"/>
+    </row>
+    <row r="59" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="109"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="102"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J59" s="61">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="100"/>
+    </row>
+    <row r="60" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="109"/>
+      <c r="B60" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J60" s="61">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="100"/>
+    </row>
+    <row r="61" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="109"/>
+      <c r="B61" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="104" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J61" s="61">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="100"/>
+    </row>
+    <row r="62" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="110"/>
+      <c r="B62" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J62" s="71">
+        <f>SUM(K62:V62)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="71">
+        <f>SUM(K57:K61)</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="71">
+        <f>SUM(L57:L61)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="71">
+        <f t="shared" ref="M62:V62" si="55">SUM(M57:M61)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="71">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="71">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P62" s="71">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="71">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="R62" s="71">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="71">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="71">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="71">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="V62" s="71">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="101"/>
+      <c r="X62" s="71">
+        <f>SUM(X57:X61)</f>
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="108">
+        <v>11</v>
+      </c>
+      <c r="B63" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" s="112"/>
+      <c r="D63" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="F63" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="G63" s="90">
+        <f>G64*H64</f>
+        <v>115001054</v>
+      </c>
+      <c r="H63" s="91">
+        <f>G63-J68</f>
+        <v>115001054</v>
+      </c>
+      <c r="I63" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J63" s="59">
+        <f>SUM(K63:V63)</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="59"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="59"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="59"/>
+      <c r="S63" s="59"/>
+      <c r="T63" s="59"/>
+      <c r="U63" s="59"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="99" t="s">
+        <v>237</v>
+      </c>
+      <c r="X63" s="59">
+        <v>91220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="109"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="89">
+        <v>91220</v>
+      </c>
+      <c r="H64" s="89">
+        <v>1260.7</v>
+      </c>
+      <c r="I64" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J64" s="61">
+        <f t="shared" ref="J64:J67" si="56">SUM(K64:V64)</f>
+        <v>0</v>
+      </c>
+      <c r="W64" s="100"/>
+    </row>
+    <row r="65" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="109"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="98"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J65" s="61">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="100"/>
+    </row>
+    <row r="66" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="109"/>
+      <c r="B66" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J66" s="61">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="100"/>
+    </row>
+    <row r="67" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="109"/>
+      <c r="B67" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="104" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J67" s="61">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="W67" s="100"/>
+    </row>
+    <row r="68" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="110"/>
+      <c r="B68" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J68" s="71">
+        <f>SUM(K68:V68)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="71">
+        <f>SUM(K63:K67)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="71">
+        <f>SUM(L63:L67)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="71">
+        <f t="shared" ref="M68:V68" si="57">SUM(M63:M67)</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="71">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="71">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="71">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="71">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="71">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="71">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="T68" s="71">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="71">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="71">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="W68" s="101"/>
+      <c r="X68" s="71">
+        <f>SUM(X63:X67)</f>
+        <v>91220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="108">
+        <v>12</v>
+      </c>
+      <c r="B69" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="112"/>
+      <c r="D69" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="G69" s="90">
+        <f>G70*H70</f>
+        <v>103500948.60000001</v>
+      </c>
+      <c r="H69" s="91">
+        <f>G69-J74</f>
+        <v>103500948.60000001</v>
+      </c>
+      <c r="I69" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J69" s="59">
+        <f>SUM(K69:V69)</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
+      <c r="Q69" s="59"/>
+      <c r="R69" s="59"/>
+      <c r="S69" s="59"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="99" t="s">
+        <v>238</v>
+      </c>
+      <c r="X69" s="59">
+        <v>82098</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="109"/>
+      <c r="B70" s="113"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="89">
+        <v>82098</v>
+      </c>
+      <c r="H70" s="89">
+        <v>1260.7</v>
+      </c>
+      <c r="I70" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J70" s="61">
+        <f t="shared" ref="J70:J73" si="58">SUM(K70:V70)</f>
+        <v>0</v>
+      </c>
+      <c r="W70" s="100"/>
+    </row>
+    <row r="71" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="109"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G71" s="102"/>
+      <c r="H71" s="102"/>
+      <c r="I71" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J71" s="61">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="W71" s="100"/>
+    </row>
+    <row r="72" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="109"/>
+      <c r="B72" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="103"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="103"/>
+      <c r="I72" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J72" s="61">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="100"/>
+    </row>
+    <row r="73" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="109"/>
+      <c r="B73" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="104" t="s">
+        <v>234</v>
+      </c>
+      <c r="D73" s="104"/>
+      <c r="E73" s="104"/>
+      <c r="F73" s="104"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J73" s="61">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="W73" s="100"/>
+    </row>
+    <row r="74" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="110"/>
+      <c r="B74" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="105"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J74" s="71">
+        <f>SUM(K74:V74)</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="71">
+        <f>SUM(K69:K73)</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="71">
+        <f>SUM(L69:L73)</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="71">
+        <f t="shared" ref="M74:V74" si="59">SUM(M69:M73)</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="71">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="71">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="71">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="71">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="R74" s="71">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="71">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="T74" s="71">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="U74" s="71">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="71">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="101"/>
+      <c r="X74" s="71">
+        <f>SUM(X69:X73)</f>
+        <v>82098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="108">
+        <v>13</v>
+      </c>
+      <c r="B75" s="111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="112"/>
+      <c r="D75" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="90">
+        <f>G76*H76</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="91">
+        <f>G75-J80</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="J75" s="59">
+        <f>SUM(K75:V75)</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="59"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="59"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="59"/>
+      <c r="P75" s="59"/>
+      <c r="Q75" s="59"/>
+      <c r="R75" s="59"/>
+      <c r="S75" s="59"/>
+      <c r="T75" s="59"/>
+      <c r="U75" s="59"/>
+      <c r="V75" s="59"/>
+      <c r="W75" s="99"/>
+      <c r="X75" s="59"/>
+    </row>
+    <row r="76" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="109"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="114"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="89"/>
+      <c r="I76" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="J76" s="61">
+        <f t="shared" ref="J76:J79" si="60">SUM(K76:V76)</f>
+        <v>0</v>
+      </c>
+      <c r="W76" s="100"/>
+    </row>
+    <row r="77" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="109"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="114"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="G77" s="102"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="J77" s="61">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="100"/>
+    </row>
+    <row r="78" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="109"/>
+      <c r="B78" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="103"/>
+      <c r="D78" s="103"/>
+      <c r="E78" s="103"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="103"/>
+      <c r="H78" s="103"/>
+      <c r="I78" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J78" s="61">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="W78" s="100"/>
+    </row>
+    <row r="79" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="109"/>
+      <c r="B79" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="104"/>
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J79" s="61">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="W79" s="100"/>
+    </row>
+    <row r="80" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="110"/>
+      <c r="B80" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="105"/>
+      <c r="I80" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J80" s="71">
+        <f>SUM(K80:V80)</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="71">
+        <f>SUM(K75:K79)</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="71">
+        <f>SUM(L75:L79)</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="71">
+        <f t="shared" ref="M80:V80" si="61">SUM(M75:M79)</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="71">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="71">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="71">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="71">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="71">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="S80" s="71">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="T80" s="71">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="U80" s="71">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="V80" s="71">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="W80" s="101"/>
+      <c r="X80" s="71">
+        <f>SUM(X75:X79)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="W33:W38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
+  <mergeCells count="132">
+    <mergeCell ref="W75:W80"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="W69:W74"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="W63:W68"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="W57:W62"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="W51:W56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="W45:W50"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="W39:W44"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="W27:W32"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="W21:W26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="W15:W20"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="W3:W8"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="B21:C23"/>
@@ -4308,59 +6621,90 @@
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:C17"/>
     <mergeCell ref="D15:D17"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="W15:W20"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="W21:W26"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="W27:W32"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="W33:W38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H3 H39:H1048576">
-    <cfRule type="expression" dxfId="5" priority="10">
+  <conditionalFormatting sqref="H1:H3 H81:H1048576">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$H:$H&lt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
+  <conditionalFormatting sqref="H57">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
+  <conditionalFormatting sqref="H63">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H69">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
+  <conditionalFormatting sqref="H75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$H:$H&lt; 0</formula>
     </cfRule>
@@ -4375,8 +6719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4700,7 +7044,7 @@
         <v>4308.5</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>74</v>
@@ -4936,7 +7280,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>22</v>
@@ -4953,7 +7297,7 @@
         <v>2640000</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>37</v>
@@ -4965,7 +7309,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>22</v>
@@ -4982,7 +7326,7 @@
         <v>3960000</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>37</v>
@@ -5022,14 +7366,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="122" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="123" t="s">
+      <c r="B22" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="95" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="52">
@@ -5044,13 +7388,13 @@
         <v>5300000</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="122" t="s">
-        <v>217</v>
+      <c r="J22" s="94" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5086,7 +7430,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D26" s="124"/>
+      <c r="D26" s="96"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/세금계산서 대상.xlsx
+++ b/세금계산서 대상.xlsx
@@ -1532,7 +1532,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="245">
   <si>
     <t>통화</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2337,14 +2337,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>계약금 : 2023.02.17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약금 : 2023.02.28</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>위해 세일전자</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2476,10 +2468,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>계약금 : 2023.06.13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>계약금 : 2023.07.20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2488,7 +2476,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>계약금 : 2023.03.15 / 패키지 : 2023.03.20 / 중도금 : 2023.06.20</t>
+    <t>계약금 : 2023.03.15 / 패키지 : 2023.03.20 / 중도금 : 2023.06.20 / 잔금 : 2023.08.11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.02.17 / 중도금 : 2023.08.31(인도)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.02.28 / 중도금 : 2023.08.30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.06.13 / 중도금 : 2023.08.30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.07.20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약금 : 2023.07.20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3259,6 +3267,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3266,25 +3316,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3292,55 +3345,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3719,10 +3727,10 @@
   <dimension ref="A1:X80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="2" topLeftCell="N54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F75" sqref="F75:F76"/>
+      <selection pane="bottomRight" activeCell="C74" sqref="C74:H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3744,13 +3752,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122"/>
       <c r="F1" s="63"/>
       <c r="G1" s="64"/>
       <c r="H1" s="78"/>
@@ -3774,11 +3782,11 @@
       <c r="A2" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="123" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
       <c r="E2" s="77" t="s">
         <v>169</v>
       </c>
@@ -3841,20 +3849,20 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="108">
+      <c r="A3" s="104">
         <v>1</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="97" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="111" t="s">
         <v>203</v>
       </c>
       <c r="G3" s="90">
@@ -3884,7 +3892,7 @@
       <c r="T3" s="59"/>
       <c r="U3" s="59"/>
       <c r="V3" s="59"/>
-      <c r="W3" s="99" t="s">
+      <c r="W3" s="97" t="s">
         <v>200</v>
       </c>
       <c r="X3" s="59">
@@ -3892,12 +3900,12 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="89">
         <v>388000000</v>
       </c>
@@ -3908,21 +3916,21 @@
         <f t="shared" ref="J4:J7" si="0">SUM(K4:V4)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="100"/>
+      <c r="W4" s="98"/>
     </row>
     <row r="5" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="100">
         <v>44991</v>
       </c>
-      <c r="H5" s="102"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="81" t="s">
         <v>171</v>
       </c>
@@ -3930,21 +3938,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="100"/>
+      <c r="W5" s="98"/>
     </row>
     <row r="6" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
       <c r="I6" s="81" t="s">
         <v>172</v>
       </c>
@@ -3952,21 +3960,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="100"/>
+      <c r="W6" s="98"/>
     </row>
     <row r="7" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="109"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="104" t="s">
+      <c r="C7" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="81" t="s">
         <v>173</v>
       </c>
@@ -3974,21 +3982,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="100"/>
+      <c r="W7" s="98"/>
     </row>
     <row r="8" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="110"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="105" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
+      <c r="C8" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="83" t="s">
         <v>174</v>
       </c>
@@ -4044,27 +4052,27 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W8" s="101"/>
+      <c r="W8" s="99"/>
       <c r="X8" s="71">
         <f>SUM(X3:X7)</f>
         <v>388000000</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108">
+      <c r="A9" s="104">
         <v>2</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="97" t="s">
+      <c r="C9" s="108"/>
+      <c r="D9" s="111" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="97"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="90">
         <f>IF(H10="", G10, G10*H10)</f>
         <v>31640000</v>
@@ -4092,7 +4100,7 @@
       <c r="T9" s="59"/>
       <c r="U9" s="59"/>
       <c r="V9" s="59"/>
-      <c r="W9" s="122" t="s">
+      <c r="W9" s="113" t="s">
         <v>192</v>
       </c>
       <c r="X9" s="59">
@@ -4100,12 +4108,12 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="109"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="89">
         <v>31640000</v>
       </c>
@@ -4116,19 +4124,19 @@
         <f t="shared" ref="J10:J13" si="2">SUM(K10:V10)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="100"/>
+      <c r="W10" s="98"/>
     </row>
     <row r="11" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="109"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
       <c r="I11" s="81" t="s">
         <v>171</v>
       </c>
@@ -4136,21 +4144,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W11" s="100"/>
+      <c r="W11" s="98"/>
     </row>
     <row r="12" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="109"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
       <c r="I12" s="81" t="s">
         <v>172</v>
       </c>
@@ -4158,21 +4166,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W12" s="100"/>
+      <c r="W12" s="98"/>
     </row>
     <row r="13" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="109"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="81" t="s">
         <v>173</v>
       </c>
@@ -4180,19 +4188,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13" s="100"/>
+      <c r="W13" s="98"/>
     </row>
     <row r="14" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
       <c r="I14" s="83" t="s">
         <v>174</v>
       </c>
@@ -4248,27 +4256,27 @@
         <f t="shared" ref="V14" si="12">SUM(V9:V13)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="101"/>
+      <c r="W14" s="99"/>
       <c r="X14" s="71">
         <f>SUM(X9:X13)</f>
         <v>31640000</v>
       </c>
     </row>
     <row r="15" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="108">
+      <c r="A15" s="104">
         <v>3</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="97" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="111" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="97"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="90">
         <f>IF(H16="", G16, G16*H16)</f>
         <v>12000000</v>
@@ -4296,16 +4304,16 @@
       <c r="T15" s="59"/>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
-      <c r="W15" s="122"/>
+      <c r="W15" s="113"/>
       <c r="X15" s="59"/>
     </row>
     <row r="16" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="109"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="89">
         <v>12000000</v>
       </c>
@@ -4316,19 +4324,19 @@
         <f t="shared" ref="J16:J19" si="13">SUM(K16:V16)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="100"/>
+      <c r="W16" s="98"/>
     </row>
     <row r="17" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
       <c r="F17" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
       <c r="I17" s="81" t="s">
         <v>171</v>
       </c>
@@ -4336,21 +4344,21 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W17" s="100"/>
+      <c r="W17" s="98"/>
     </row>
     <row r="18" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="109"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
       <c r="I18" s="81" t="s">
         <v>172</v>
       </c>
@@ -4358,21 +4366,21 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W18" s="100"/>
+      <c r="W18" s="98"/>
     </row>
     <row r="19" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="109"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
       <c r="I19" s="81" t="s">
         <v>173</v>
       </c>
@@ -4380,19 +4388,19 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W19" s="100"/>
+      <c r="W19" s="98"/>
     </row>
     <row r="20" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="110"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
       <c r="I20" s="83" t="s">
         <v>174</v>
       </c>
@@ -4448,27 +4456,27 @@
         <f t="shared" ref="V20" si="23">SUM(V15:V19)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="101"/>
+      <c r="W20" s="99"/>
       <c r="X20" s="71">
         <f>SUM(X15:X19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="108">
+      <c r="A21" s="104">
         <v>4</v>
       </c>
       <c r="B21" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="97" t="s">
+      <c r="C21" s="108"/>
+      <c r="D21" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="97"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="90">
         <f>IF(H22="", G22, G22*H22)</f>
         <v>3500000</v>
@@ -4496,16 +4504,16 @@
       <c r="T21" s="59"/>
       <c r="U21" s="59"/>
       <c r="V21" s="59"/>
-      <c r="W21" s="122"/>
+      <c r="W21" s="113"/>
       <c r="X21" s="59"/>
     </row>
     <row r="22" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="109"/>
+      <c r="A22" s="105"/>
       <c r="B22" s="118"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="89">
         <v>3500000</v>
       </c>
@@ -4516,19 +4524,19 @@
         <f t="shared" ref="J22:J25" si="24">SUM(K22:V22)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="100"/>
+      <c r="W22" s="98"/>
     </row>
     <row r="23" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="109"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="119"/>
       <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
       <c r="F23" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
       <c r="I23" s="81" t="s">
         <v>171</v>
       </c>
@@ -4536,21 +4544,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W23" s="100"/>
+      <c r="W23" s="98"/>
     </row>
     <row r="24" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="109"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
       <c r="I24" s="81" t="s">
         <v>172</v>
       </c>
@@ -4558,21 +4566,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W24" s="100"/>
+      <c r="W24" s="98"/>
     </row>
     <row r="25" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="109"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="104" t="s">
+      <c r="C25" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
       <c r="I25" s="81" t="s">
         <v>173</v>
       </c>
@@ -4580,21 +4588,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W25" s="100"/>
+      <c r="W25" s="98"/>
     </row>
     <row r="26" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="110"/>
+      <c r="A26" s="106"/>
       <c r="B26" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C26" s="105" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
+      <c r="C26" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
       <c r="I26" s="83" t="s">
         <v>174</v>
       </c>
@@ -4650,27 +4658,27 @@
         <f t="shared" ref="V26" si="34">SUM(V21:V25)</f>
         <v>0</v>
       </c>
-      <c r="W26" s="101"/>
+      <c r="W26" s="99"/>
       <c r="X26" s="71">
         <f>SUM(X21:X25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108">
+      <c r="A27" s="104">
         <v>5</v>
       </c>
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="97" t="s">
+      <c r="C27" s="108"/>
+      <c r="D27" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="F27" s="97" t="s">
+      <c r="F27" s="111" t="s">
         <v>202</v>
       </c>
       <c r="G27" s="92">
@@ -4700,7 +4708,7 @@
       <c r="T27" s="59"/>
       <c r="U27" s="59"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="99" t="s">
+      <c r="W27" s="97" t="s">
         <v>201</v>
       </c>
       <c r="X27" s="59">
@@ -4709,12 +4717,12 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="109"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
+      <c r="A28" s="105"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
       <c r="G28" s="89">
         <v>1250000000</v>
       </c>
@@ -4726,21 +4734,21 @@
         <f t="shared" ref="J28:J31" si="35">SUM(K28:V28)</f>
         <v>0</v>
       </c>
-      <c r="W28" s="100"/>
+      <c r="W28" s="98"/>
     </row>
     <row r="29" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="109"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
+      <c r="A29" s="105"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
       <c r="F29" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="H29" s="102"/>
+      <c r="G29" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="100"/>
       <c r="I29" s="81" t="s">
         <v>171</v>
       </c>
@@ -4748,21 +4756,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W29" s="100"/>
+      <c r="W29" s="98"/>
     </row>
     <row r="30" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="109"/>
+      <c r="A30" s="105"/>
       <c r="B30" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
       <c r="I30" s="81" t="s">
         <v>172</v>
       </c>
@@ -4770,21 +4778,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W30" s="100"/>
+      <c r="W30" s="98"/>
     </row>
     <row r="31" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="109"/>
+      <c r="A31" s="105"/>
       <c r="B31" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
       <c r="I31" s="81" t="s">
         <v>173</v>
       </c>
@@ -4792,21 +4800,21 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="W31" s="100"/>
+      <c r="W31" s="98"/>
     </row>
     <row r="32" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="110"/>
+      <c r="A32" s="106"/>
       <c r="B32" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="105" t="s">
-        <v>205</v>
-      </c>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
+      <c r="C32" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
       <c r="I32" s="83" t="s">
         <v>174</v>
       </c>
@@ -4862,27 +4870,27 @@
         <f t="shared" ref="V32" si="45">SUM(V27:V31)</f>
         <v>0</v>
       </c>
-      <c r="W32" s="101"/>
+      <c r="W32" s="99"/>
       <c r="X32" s="71">
         <f>SUM(X27:X31)</f>
         <v>1250000000</v>
       </c>
     </row>
     <row r="33" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108">
+      <c r="A33" s="104">
         <v>6</v>
       </c>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="C33" s="112"/>
-      <c r="D33" s="97" t="s">
+      <c r="C33" s="108"/>
+      <c r="D33" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="E33" s="97" t="s">
+      <c r="E33" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="97" t="s">
+      <c r="F33" s="111" t="s">
         <v>197</v>
       </c>
       <c r="G33" s="90">
@@ -4912,7 +4920,7 @@
       <c r="T33" s="59"/>
       <c r="U33" s="59"/>
       <c r="V33" s="59"/>
-      <c r="W33" s="99" t="s">
+      <c r="W33" s="97" t="s">
         <v>204</v>
       </c>
       <c r="X33" s="59">
@@ -4920,12 +4928,12 @@
       </c>
     </row>
     <row r="34" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="109"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
       <c r="G34" s="89">
         <v>404898</v>
       </c>
@@ -4939,19 +4947,19 @@
         <f t="shared" ref="J34:J37" si="46">SUM(K34:V34)</f>
         <v>0</v>
       </c>
-      <c r="W34" s="100"/>
+      <c r="W34" s="98"/>
     </row>
     <row r="35" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="109"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
       <c r="F35" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
       <c r="I35" s="81" t="s">
         <v>171</v>
       </c>
@@ -4959,21 +4967,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W35" s="100"/>
+      <c r="W35" s="98"/>
     </row>
     <row r="36" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="109"/>
+      <c r="A36" s="105"/>
       <c r="B36" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="103" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
+      <c r="C36" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
       <c r="I36" s="81" t="s">
         <v>172</v>
       </c>
@@ -4981,21 +4989,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W36" s="100"/>
+      <c r="W36" s="98"/>
     </row>
     <row r="37" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="109"/>
+      <c r="A37" s="105"/>
       <c r="B37" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
       <c r="I37" s="81" t="s">
         <v>173</v>
       </c>
@@ -5003,21 +5011,21 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="W37" s="100"/>
+      <c r="W37" s="98"/>
     </row>
     <row r="38" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="110"/>
+      <c r="A38" s="106"/>
       <c r="B38" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="105" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
+      <c r="C38" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="103"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
       <c r="I38" s="83" t="s">
         <v>174</v>
       </c>
@@ -5073,28 +5081,28 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="W38" s="101"/>
+      <c r="W38" s="99"/>
       <c r="X38" s="71">
         <f>SUM(X33:X37)</f>
         <v>404898</v>
       </c>
     </row>
     <row r="39" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="108">
+      <c r="A39" s="104">
         <v>7</v>
       </c>
-      <c r="B39" s="111" t="s">
+      <c r="B39" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="108"/>
+      <c r="D39" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="C39" s="112"/>
-      <c r="D39" s="97" t="s">
-        <v>219</v>
-      </c>
-      <c r="E39" s="97" t="s">
+      <c r="E39" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="F39" s="97" t="s">
-        <v>227</v>
+      <c r="F39" s="111" t="s">
+        <v>225</v>
       </c>
       <c r="G39" s="90">
         <f>IF(H40="", G40, G40*H40)</f>
@@ -5123,18 +5131,18 @@
       <c r="T39" s="59"/>
       <c r="U39" s="59"/>
       <c r="V39" s="59"/>
-      <c r="W39" s="99"/>
+      <c r="W39" s="97"/>
       <c r="X39" s="59">
         <v>688000000</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="109"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
       <c r="G40" s="89">
         <v>688000000</v>
       </c>
@@ -5146,19 +5154,19 @@
         <f t="shared" ref="J40:J43" si="48">SUM(K40:V40)</f>
         <v>0</v>
       </c>
-      <c r="W40" s="100"/>
+      <c r="W40" s="98"/>
     </row>
     <row r="41" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
       <c r="F41" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
       <c r="I41" s="81" t="s">
         <v>171</v>
       </c>
@@ -5166,21 +5174,21 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="W41" s="100"/>
+      <c r="W41" s="98"/>
     </row>
     <row r="42" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="109"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="103" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
+      <c r="C42" s="101" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
       <c r="I42" s="81" t="s">
         <v>172</v>
       </c>
@@ -5188,21 +5196,21 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="W42" s="100"/>
+      <c r="W42" s="98"/>
     </row>
     <row r="43" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="109"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
       <c r="I43" s="81" t="s">
         <v>173</v>
       </c>
@@ -5210,21 +5218,21 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="W43" s="100"/>
+      <c r="W43" s="98"/>
     </row>
     <row r="44" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="110"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="105" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
+      <c r="C44" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
       <c r="I44" s="83" t="s">
         <v>174</v>
       </c>
@@ -5280,28 +5288,28 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="W44" s="101"/>
+      <c r="W44" s="99"/>
       <c r="X44" s="71">
         <f>SUM(X39:X43)</f>
         <v>688000000</v>
       </c>
     </row>
     <row r="45" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="108">
+      <c r="A45" s="104">
         <v>8</v>
       </c>
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="108"/>
+      <c r="D45" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="C45" s="112"/>
-      <c r="D45" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="E45" s="97" t="s">
-        <v>229</v>
-      </c>
-      <c r="F45" s="97" t="s">
-        <v>230</v>
+      <c r="E45" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="111" t="s">
+        <v>228</v>
       </c>
       <c r="G45" s="90">
         <f>IF(H46="", G46, G46*H46)</f>
@@ -5330,18 +5338,18 @@
       <c r="T45" s="59"/>
       <c r="U45" s="59"/>
       <c r="V45" s="59"/>
-      <c r="W45" s="99"/>
+      <c r="W45" s="97"/>
       <c r="X45" s="59">
         <v>52000000</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="109"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="98"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
       <c r="G46" s="89">
         <v>52000000</v>
       </c>
@@ -5353,19 +5361,19 @@
         <f t="shared" ref="J46:J49" si="50">SUM(K46:V46)</f>
         <v>0</v>
       </c>
-      <c r="W46" s="100"/>
+      <c r="W46" s="98"/>
     </row>
     <row r="47" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="109"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
       <c r="F47" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G47" s="102"/>
-      <c r="H47" s="102"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
       <c r="I47" s="81" t="s">
         <v>171</v>
       </c>
@@ -5373,19 +5381,19 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="W47" s="100"/>
+      <c r="W47" s="98"/>
     </row>
     <row r="48" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="109"/>
+      <c r="A48" s="105"/>
       <c r="B48" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
       <c r="I48" s="81" t="s">
         <v>172</v>
       </c>
@@ -5393,21 +5401,21 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="W48" s="100"/>
+      <c r="W48" s="98"/>
     </row>
     <row r="49" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="109"/>
+      <c r="A49" s="105"/>
       <c r="B49" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="104" t="s">
+      <c r="C49" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
       <c r="I49" s="81" t="s">
         <v>173</v>
       </c>
@@ -5415,21 +5423,21 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="W49" s="100"/>
+      <c r="W49" s="98"/>
     </row>
     <row r="50" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="110"/>
+      <c r="A50" s="106"/>
       <c r="B50" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="105" t="s">
-        <v>240</v>
-      </c>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
+      <c r="C50" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
       <c r="I50" s="83" t="s">
         <v>174</v>
       </c>
@@ -5485,28 +5493,28 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="W50" s="101"/>
+      <c r="W50" s="99"/>
       <c r="X50" s="71">
         <f>SUM(X45:X49)</f>
         <v>52000000</v>
       </c>
     </row>
     <row r="51" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="108">
+      <c r="A51" s="104">
         <v>9</v>
       </c>
-      <c r="B51" s="111" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51" s="112"/>
-      <c r="D51" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="97" t="s">
-        <v>225</v>
-      </c>
-      <c r="F51" s="97" t="s">
-        <v>231</v>
+      <c r="B51" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="108"/>
+      <c r="D51" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" s="111" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="111" t="s">
+        <v>229</v>
       </c>
       <c r="G51" s="90">
         <f>IF(H52="", G52, G52*H52)</f>
@@ -5535,18 +5543,18 @@
       <c r="T51" s="59"/>
       <c r="U51" s="59"/>
       <c r="V51" s="59"/>
-      <c r="W51" s="99"/>
+      <c r="W51" s="97"/>
       <c r="X51" s="59">
         <v>137000000</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="109"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
       <c r="G52" s="89">
         <v>137000000</v>
       </c>
@@ -5558,19 +5566,19 @@
         <f t="shared" ref="J52:J55" si="52">SUM(K52:V52)</f>
         <v>0</v>
       </c>
-      <c r="W52" s="100"/>
+      <c r="W52" s="98"/>
     </row>
     <row r="53" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="109"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
       <c r="F53" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
       <c r="I53" s="81" t="s">
         <v>171</v>
       </c>
@@ -5578,19 +5586,19 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="W53" s="100"/>
+      <c r="W53" s="98"/>
     </row>
     <row r="54" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="109"/>
+      <c r="A54" s="105"/>
       <c r="B54" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
       <c r="I54" s="81" t="s">
         <v>172</v>
       </c>
@@ -5598,21 +5606,21 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="W54" s="100"/>
+      <c r="W54" s="98"/>
     </row>
     <row r="55" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="109"/>
+      <c r="A55" s="105"/>
       <c r="B55" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="102"/>
       <c r="I55" s="81" t="s">
         <v>173</v>
       </c>
@@ -5620,21 +5628,21 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="W55" s="100"/>
+      <c r="W55" s="98"/>
     </row>
     <row r="56" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="110"/>
+      <c r="A56" s="106"/>
       <c r="B56" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C56" s="105" t="s">
-        <v>241</v>
-      </c>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
+      <c r="C56" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="103"/>
       <c r="I56" s="83" t="s">
         <v>174</v>
       </c>
@@ -5690,28 +5698,28 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="W56" s="101"/>
+      <c r="W56" s="99"/>
       <c r="X56" s="71">
         <f>SUM(X51:X55)</f>
         <v>137000000</v>
       </c>
     </row>
     <row r="57" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="108">
+      <c r="A57" s="104">
         <v>10</v>
       </c>
-      <c r="B57" s="111" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" s="112"/>
-      <c r="D57" s="97" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="F57" s="97" t="s">
-        <v>235</v>
+      <c r="B57" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="108"/>
+      <c r="D57" s="111" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="F57" s="111" t="s">
+        <v>233</v>
       </c>
       <c r="G57" s="90">
         <f>IF(H58="", G58, G58*H58)</f>
@@ -5740,18 +5748,18 @@
       <c r="T57" s="59"/>
       <c r="U57" s="59"/>
       <c r="V57" s="59"/>
-      <c r="W57" s="99"/>
+      <c r="W57" s="97"/>
       <c r="X57" s="59">
         <v>36000000</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="109"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="98"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="112"/>
       <c r="G58" s="89">
         <v>36000000</v>
       </c>
@@ -5763,19 +5771,19 @@
         <f t="shared" ref="J58:J61" si="54">SUM(K58:V58)</f>
         <v>0</v>
       </c>
-      <c r="W58" s="100"/>
+      <c r="W58" s="98"/>
     </row>
     <row r="59" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="109"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
       <c r="F59" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G59" s="102"/>
-      <c r="H59" s="102"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
       <c r="I59" s="81" t="s">
         <v>171</v>
       </c>
@@ -5783,19 +5791,19 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="W59" s="100"/>
+      <c r="W59" s="98"/>
     </row>
     <row r="60" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="109"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
       <c r="I60" s="81" t="s">
         <v>172</v>
       </c>
@@ -5803,21 +5811,21 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="W60" s="100"/>
+      <c r="W60" s="98"/>
     </row>
     <row r="61" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="109"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="104" t="s">
-        <v>234</v>
-      </c>
-      <c r="D61" s="104"/>
-      <c r="E61" s="104"/>
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
+      <c r="C61" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
       <c r="I61" s="81" t="s">
         <v>173</v>
       </c>
@@ -5825,21 +5833,21 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="W61" s="100"/>
+      <c r="W61" s="98"/>
     </row>
     <row r="62" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="110"/>
+      <c r="A62" s="106"/>
       <c r="B62" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C62" s="105" t="s">
-        <v>241</v>
-      </c>
-      <c r="D62" s="105"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="105"/>
+      <c r="C62" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
       <c r="I62" s="83" t="s">
         <v>174</v>
       </c>
@@ -5895,28 +5903,28 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="W62" s="101"/>
+      <c r="W62" s="99"/>
       <c r="X62" s="71">
         <f>SUM(X57:X61)</f>
         <v>36000000</v>
       </c>
     </row>
     <row r="63" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="108">
+      <c r="A63" s="104">
         <v>11</v>
       </c>
-      <c r="B63" s="111" t="s">
-        <v>221</v>
-      </c>
-      <c r="C63" s="112"/>
-      <c r="D63" s="97" t="s">
-        <v>224</v>
-      </c>
-      <c r="E63" s="97" t="s">
+      <c r="B63" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="108"/>
+      <c r="D63" s="111" t="s">
+        <v>222</v>
+      </c>
+      <c r="E63" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="F63" s="97" t="s">
-        <v>236</v>
+      <c r="F63" s="111" t="s">
+        <v>234</v>
       </c>
       <c r="G63" s="90">
         <f>G64*H64</f>
@@ -5945,20 +5953,20 @@
       <c r="T63" s="59"/>
       <c r="U63" s="59"/>
       <c r="V63" s="59"/>
-      <c r="W63" s="99" t="s">
-        <v>237</v>
+      <c r="W63" s="97" t="s">
+        <v>235</v>
       </c>
       <c r="X63" s="59">
         <v>91220</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="109"/>
-      <c r="B64" s="113"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="98"/>
+      <c r="A64" s="105"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="110"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
       <c r="G64" s="89">
         <v>91220</v>
       </c>
@@ -5972,19 +5980,19 @@
         <f t="shared" ref="J64:J67" si="56">SUM(K64:V64)</f>
         <v>0</v>
       </c>
-      <c r="W64" s="100"/>
+      <c r="W64" s="98"/>
     </row>
     <row r="65" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="109"/>
-      <c r="B65" s="113"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="98"/>
-      <c r="E65" s="98"/>
+      <c r="A65" s="105"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
       <c r="F65" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G65" s="102"/>
-      <c r="H65" s="102"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="100"/>
       <c r="I65" s="81" t="s">
         <v>171</v>
       </c>
@@ -5992,19 +6000,19 @@
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="W65" s="100"/>
+      <c r="W65" s="98"/>
     </row>
     <row r="66" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="109"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="103"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
       <c r="I66" s="81" t="s">
         <v>172</v>
       </c>
@@ -6012,21 +6020,21 @@
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="W66" s="100"/>
+      <c r="W66" s="98"/>
     </row>
     <row r="67" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="109"/>
+      <c r="A67" s="105"/>
       <c r="B67" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="104" t="s">
-        <v>234</v>
-      </c>
-      <c r="D67" s="104"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="104"/>
+      <c r="C67" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
       <c r="I67" s="81" t="s">
         <v>173</v>
       </c>
@@ -6034,19 +6042,21 @@
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="W67" s="100"/>
+      <c r="W67" s="98"/>
     </row>
     <row r="68" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="110"/>
+      <c r="A68" s="106"/>
       <c r="B68" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C68" s="105"/>
-      <c r="D68" s="105"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="105"/>
-      <c r="H68" s="105"/>
+      <c r="C68" s="103" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="103"/>
       <c r="I68" s="83" t="s">
         <v>174</v>
       </c>
@@ -6102,28 +6112,28 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="W68" s="101"/>
+      <c r="W68" s="99"/>
       <c r="X68" s="71">
         <f>SUM(X63:X67)</f>
         <v>91220</v>
       </c>
     </row>
     <row r="69" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="108">
+      <c r="A69" s="104">
         <v>12</v>
       </c>
-      <c r="B69" s="111" t="s">
-        <v>221</v>
-      </c>
-      <c r="C69" s="112"/>
-      <c r="D69" s="97" t="s">
-        <v>233</v>
-      </c>
-      <c r="E69" s="97" t="s">
+      <c r="B69" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" s="108"/>
+      <c r="D69" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="E69" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="F69" s="97" t="s">
-        <v>236</v>
+      <c r="F69" s="111" t="s">
+        <v>234</v>
       </c>
       <c r="G69" s="90">
         <f>G70*H70</f>
@@ -6152,20 +6162,20 @@
       <c r="T69" s="59"/>
       <c r="U69" s="59"/>
       <c r="V69" s="59"/>
-      <c r="W69" s="99" t="s">
-        <v>238</v>
+      <c r="W69" s="97" t="s">
+        <v>236</v>
       </c>
       <c r="X69" s="59">
         <v>82098</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="109"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="98"/>
-      <c r="E70" s="98"/>
-      <c r="F70" s="98"/>
+      <c r="A70" s="105"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
       <c r="G70" s="89">
         <v>82098</v>
       </c>
@@ -6179,19 +6189,19 @@
         <f t="shared" ref="J70:J73" si="58">SUM(K70:V70)</f>
         <v>0</v>
       </c>
-      <c r="W70" s="100"/>
+      <c r="W70" s="98"/>
     </row>
     <row r="71" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="109"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="98"/>
-      <c r="E71" s="98"/>
+      <c r="A71" s="105"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="110"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
       <c r="F71" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G71" s="102"/>
-      <c r="H71" s="102"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="100"/>
       <c r="I71" s="81" t="s">
         <v>171</v>
       </c>
@@ -6199,19 +6209,19 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="W71" s="100"/>
+      <c r="W71" s="98"/>
     </row>
     <row r="72" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="109"/>
+      <c r="A72" s="105"/>
       <c r="B72" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="103"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="103"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="103"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="101"/>
+      <c r="F72" s="101"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="101"/>
       <c r="I72" s="81" t="s">
         <v>172</v>
       </c>
@@ -6219,21 +6229,21 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="W72" s="100"/>
+      <c r="W72" s="98"/>
     </row>
     <row r="73" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="109"/>
+      <c r="A73" s="105"/>
       <c r="B73" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="104" t="s">
-        <v>234</v>
-      </c>
-      <c r="D73" s="104"/>
-      <c r="E73" s="104"/>
-      <c r="F73" s="104"/>
-      <c r="G73" s="104"/>
-      <c r="H73" s="104"/>
+      <c r="C73" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="102"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="102"/>
       <c r="I73" s="81" t="s">
         <v>173</v>
       </c>
@@ -6241,19 +6251,21 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="W73" s="100"/>
+      <c r="W73" s="98"/>
     </row>
     <row r="74" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="110"/>
+      <c r="A74" s="106"/>
       <c r="B74" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C74" s="105"/>
-      <c r="D74" s="105"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="105"/>
+      <c r="C74" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="103"/>
+      <c r="E74" s="103"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
       <c r="I74" s="83" t="s">
         <v>174</v>
       </c>
@@ -6309,25 +6321,25 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="W74" s="101"/>
+      <c r="W74" s="99"/>
       <c r="X74" s="71">
         <f>SUM(X69:X73)</f>
         <v>82098</v>
       </c>
     </row>
     <row r="75" spans="1:24" s="60" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="108">
+      <c r="A75" s="104">
         <v>13</v>
       </c>
-      <c r="B75" s="111" t="s">
-        <v>222</v>
-      </c>
-      <c r="C75" s="112"/>
-      <c r="D75" s="97" t="s">
-        <v>223</v>
-      </c>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
+      <c r="B75" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="108"/>
+      <c r="D75" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75" s="111"/>
+      <c r="F75" s="111"/>
       <c r="G75" s="90">
         <f>G76*H76</f>
         <v>0</v>
@@ -6355,16 +6367,16 @@
       <c r="T75" s="59"/>
       <c r="U75" s="59"/>
       <c r="V75" s="59"/>
-      <c r="W75" s="99"/>
+      <c r="W75" s="97"/>
       <c r="X75" s="59"/>
     </row>
     <row r="76" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="109"/>
-      <c r="B76" s="113"/>
-      <c r="C76" s="114"/>
-      <c r="D76" s="98"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98"/>
+      <c r="A76" s="105"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="112"/>
       <c r="G76" s="89"/>
       <c r="H76" s="89"/>
       <c r="I76" s="81" t="s">
@@ -6374,19 +6386,19 @@
         <f t="shared" ref="J76:J79" si="60">SUM(K76:V76)</f>
         <v>0</v>
       </c>
-      <c r="W76" s="100"/>
+      <c r="W76" s="98"/>
     </row>
     <row r="77" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="109"/>
-      <c r="B77" s="113"/>
-      <c r="C77" s="114"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="98"/>
+      <c r="A77" s="105"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
       <c r="F77" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="G77" s="102"/>
-      <c r="H77" s="102"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
       <c r="I77" s="81" t="s">
         <v>171</v>
       </c>
@@ -6394,19 +6406,19 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="W77" s="100"/>
+      <c r="W77" s="98"/>
     </row>
     <row r="78" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="109"/>
+      <c r="A78" s="105"/>
       <c r="B78" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="103"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="101"/>
+      <c r="F78" s="101"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
       <c r="I78" s="81" t="s">
         <v>172</v>
       </c>
@@ -6414,19 +6426,19 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="W78" s="100"/>
+      <c r="W78" s="98"/>
     </row>
     <row r="79" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="109"/>
+      <c r="A79" s="105"/>
       <c r="B79" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C79" s="104"/>
-      <c r="D79" s="104"/>
-      <c r="E79" s="104"/>
-      <c r="F79" s="104"/>
-      <c r="G79" s="104"/>
-      <c r="H79" s="104"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="102"/>
       <c r="I79" s="81" t="s">
         <v>173</v>
       </c>
@@ -6434,19 +6446,19 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="W79" s="100"/>
+      <c r="W79" s="98"/>
     </row>
     <row r="80" spans="1:24" s="76" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="110"/>
+      <c r="A80" s="106"/>
       <c r="B80" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C80" s="105"/>
-      <c r="D80" s="105"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="105"/>
-      <c r="H80" s="105"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="103"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="103"/>
+      <c r="H80" s="103"/>
       <c r="I80" s="83" t="s">
         <v>174</v>
       </c>
@@ -6502,7 +6514,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="W80" s="101"/>
+      <c r="W80" s="99"/>
       <c r="X80" s="71">
         <f>SUM(X75:X79)</f>
         <v>0</v>
@@ -6510,76 +6522,44 @@
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="W75:W80"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="B75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="W69:W74"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="W63:W68"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="B63:C65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="W57:W62"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="B57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="W51:W56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="W45:W50"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="W39:W44"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="W33:W38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="W3:W8"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="W9:W14"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:C17"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="W27:W32"/>
     <mergeCell ref="C30:H30"/>
@@ -6604,44 +6584,76 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="W3:W8"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="W9:W14"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="W33:W38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="W39:W44"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="W45:W50"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="W51:W56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="W57:W62"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="B57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="W63:W68"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="B63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="W69:W74"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="W75:W80"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="B75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F76"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H1:H3 H81:H1048576">
@@ -7044,7 +7056,7 @@
         <v>4308.5</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>74</v>
@@ -7280,7 +7292,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>22</v>
@@ -7297,7 +7309,7 @@
         <v>2640000</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>37</v>
@@ -7309,7 +7321,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>22</v>
@@ -7326,7 +7338,7 @@
         <v>3960000</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>37</v>
@@ -7371,7 +7383,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C22" s="95" t="s">
         <v>22</v>
@@ -7388,13 +7400,13 @@
         <v>5300000</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H22" s="43" t="s">
         <v>74</v>
       </c>
       <c r="J22" s="94" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
